--- a/pred_ohlcv/54/2019-11-02 IOST ohlcv.xlsx
+++ b/pred_ohlcv/54/2019-11-02 IOST ohlcv.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H175"/>
+  <dimension ref="A1:I155"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,7 +399,12 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>fluc_close</t>
+          <t>low_check</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>high_check</t>
         </is>
       </c>
     </row>
@@ -408,7 +413,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>7.97</v>
+        <v>7.98</v>
       </c>
       <c r="C2" t="n">
         <v>7.98</v>
@@ -417,15 +422,18 @@
         <v>7.98</v>
       </c>
       <c r="E2" t="n">
-        <v>7.97</v>
+        <v>7.98</v>
       </c>
       <c r="F2" t="n">
-        <v>2605.9088</v>
+        <v>40861.2907</v>
       </c>
       <c r="G2" t="n">
-        <v>7.939000000000001</v>
+        <v>7.935666666666666</v>
       </c>
       <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
         <v>0</v>
       </c>
     </row>
@@ -434,7 +442,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>7.98</v>
+        <v>7.97</v>
       </c>
       <c r="C3" t="n">
         <v>7.98</v>
@@ -443,15 +451,18 @@
         <v>7.98</v>
       </c>
       <c r="E3" t="n">
-        <v>7.98</v>
+        <v>7.97</v>
       </c>
       <c r="F3" t="n">
-        <v>2543.8596</v>
+        <v>2605.9088</v>
       </c>
       <c r="G3" t="n">
-        <v>7.940166666666667</v>
+        <v>7.939000000000001</v>
       </c>
       <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
         <v>0</v>
       </c>
     </row>
@@ -472,12 +483,15 @@
         <v>7.98</v>
       </c>
       <c r="F4" t="n">
-        <v>3391.2906</v>
+        <v>2543.8596</v>
       </c>
       <c r="G4" t="n">
-        <v>7.941333333333334</v>
+        <v>7.940166666666667</v>
       </c>
       <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
         <v>0</v>
       </c>
     </row>
@@ -498,12 +512,15 @@
         <v>7.98</v>
       </c>
       <c r="F5" t="n">
-        <v>279.1353</v>
+        <v>3391.2906</v>
       </c>
       <c r="G5" t="n">
-        <v>7.9425</v>
+        <v>7.941333333333334</v>
       </c>
       <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -524,12 +541,15 @@
         <v>7.98</v>
       </c>
       <c r="F6" t="n">
-        <v>1481.3283</v>
+        <v>279.1353</v>
       </c>
       <c r="G6" t="n">
-        <v>7.944000000000001</v>
+        <v>7.9425</v>
       </c>
       <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
         <v>0</v>
       </c>
     </row>
@@ -550,12 +570,15 @@
         <v>7.98</v>
       </c>
       <c r="F7" t="n">
-        <v>1713.1641</v>
+        <v>1481.3283</v>
       </c>
       <c r="G7" t="n">
-        <v>7.947000000000001</v>
+        <v>7.944000000000001</v>
       </c>
       <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
         <v>0</v>
       </c>
     </row>
@@ -576,12 +599,15 @@
         <v>7.98</v>
       </c>
       <c r="F8" t="n">
-        <v>790.6891000000001</v>
+        <v>1713.1641</v>
       </c>
       <c r="G8" t="n">
-        <v>7.948000000000001</v>
+        <v>7.947000000000001</v>
       </c>
       <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
         <v>0</v>
       </c>
     </row>
@@ -602,12 +628,15 @@
         <v>7.98</v>
       </c>
       <c r="F9" t="n">
-        <v>749.9373000000001</v>
+        <v>790.6891000000001</v>
       </c>
       <c r="G9" t="n">
-        <v>7.949166666666668</v>
+        <v>7.948000000000001</v>
       </c>
       <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -616,24 +645,27 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>7.86</v>
+        <v>7.98</v>
       </c>
       <c r="C10" t="n">
-        <v>7.85</v>
+        <v>7.98</v>
       </c>
       <c r="D10" t="n">
-        <v>7.86</v>
+        <v>7.98</v>
       </c>
       <c r="E10" t="n">
-        <v>7.85</v>
+        <v>7.98</v>
       </c>
       <c r="F10" t="n">
-        <v>9102.0537</v>
+        <v>749.9373000000001</v>
       </c>
       <c r="G10" t="n">
-        <v>7.948333333333335</v>
+        <v>7.949166666666668</v>
       </c>
       <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
         <v>0</v>
       </c>
     </row>
@@ -642,24 +674,27 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
+        <v>7.86</v>
+      </c>
+      <c r="C11" t="n">
         <v>7.85</v>
       </c>
-      <c r="C11" t="n">
-        <v>7.8</v>
-      </c>
       <c r="D11" t="n">
+        <v>7.86</v>
+      </c>
+      <c r="E11" t="n">
         <v>7.85</v>
       </c>
-      <c r="E11" t="n">
-        <v>7.8</v>
-      </c>
       <c r="F11" t="n">
-        <v>2551.2541</v>
+        <v>9102.0537</v>
       </c>
       <c r="G11" t="n">
-        <v>7.947166666666669</v>
+        <v>7.948333333333335</v>
       </c>
       <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
         <v>0</v>
       </c>
     </row>
@@ -668,24 +703,27 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>7.76</v>
+        <v>7.85</v>
       </c>
       <c r="C12" t="n">
-        <v>7.77</v>
+        <v>7.8</v>
       </c>
       <c r="D12" t="n">
-        <v>7.77</v>
+        <v>7.85</v>
       </c>
       <c r="E12" t="n">
-        <v>7.76</v>
+        <v>7.8</v>
       </c>
       <c r="F12" t="n">
-        <v>136357.8041</v>
+        <v>2551.2541</v>
       </c>
       <c r="G12" t="n">
-        <v>7.945500000000001</v>
+        <v>7.947166666666669</v>
       </c>
       <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" t="n">
         <v>0</v>
       </c>
     </row>
@@ -694,24 +732,27 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>7.78</v>
+        <v>7.76</v>
       </c>
       <c r="C13" t="n">
-        <v>7.78</v>
+        <v>7.77</v>
       </c>
       <c r="D13" t="n">
-        <v>7.78</v>
+        <v>7.77</v>
       </c>
       <c r="E13" t="n">
-        <v>7.78</v>
+        <v>7.76</v>
       </c>
       <c r="F13" t="n">
-        <v>3289.1416</v>
+        <v>136357.8041</v>
       </c>
       <c r="G13" t="n">
-        <v>7.944166666666667</v>
+        <v>7.945500000000001</v>
       </c>
       <c r="H13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
         <v>0</v>
       </c>
     </row>
@@ -720,24 +761,27 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>7.77</v>
+        <v>7.78</v>
       </c>
       <c r="C14" t="n">
-        <v>7.77</v>
+        <v>7.78</v>
       </c>
       <c r="D14" t="n">
-        <v>7.77</v>
+        <v>7.78</v>
       </c>
       <c r="E14" t="n">
-        <v>7.77</v>
+        <v>7.78</v>
       </c>
       <c r="F14" t="n">
-        <v>5307.7436</v>
+        <v>3289.1416</v>
       </c>
       <c r="G14" t="n">
-        <v>7.945666666666667</v>
+        <v>7.944166666666667</v>
       </c>
       <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
         <v>0</v>
       </c>
     </row>
@@ -746,24 +790,27 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>7.78</v>
+        <v>7.77</v>
       </c>
       <c r="C15" t="n">
-        <v>7.78</v>
+        <v>7.77</v>
       </c>
       <c r="D15" t="n">
-        <v>7.78</v>
+        <v>7.77</v>
       </c>
       <c r="E15" t="n">
-        <v>7.78</v>
+        <v>7.77</v>
       </c>
       <c r="F15" t="n">
-        <v>2488.9328</v>
+        <v>5307.7436</v>
       </c>
       <c r="G15" t="n">
         <v>7.945666666666667</v>
       </c>
       <c r="H15" t="n">
+        <v>0</v>
+      </c>
+      <c r="I15" t="n">
         <v>0</v>
       </c>
     </row>
@@ -772,24 +819,27 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>7.82</v>
+        <v>7.78</v>
       </c>
       <c r="C16" t="n">
-        <v>7.82</v>
+        <v>7.78</v>
       </c>
       <c r="D16" t="n">
-        <v>7.82</v>
+        <v>7.78</v>
       </c>
       <c r="E16" t="n">
-        <v>7.82</v>
+        <v>7.78</v>
       </c>
       <c r="F16" t="n">
-        <v>1012.2762</v>
+        <v>2488.9328</v>
       </c>
       <c r="G16" t="n">
-        <v>7.946333333333333</v>
+        <v>7.945666666666667</v>
       </c>
       <c r="H16" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" t="n">
         <v>0</v>
       </c>
     </row>
@@ -798,24 +848,27 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>7.75</v>
+        <v>7.82</v>
       </c>
       <c r="C17" t="n">
-        <v>7.73</v>
+        <v>7.82</v>
       </c>
       <c r="D17" t="n">
-        <v>7.75</v>
+        <v>7.82</v>
       </c>
       <c r="E17" t="n">
-        <v>7.73</v>
+        <v>7.82</v>
       </c>
       <c r="F17" t="n">
-        <v>95300.7549</v>
+        <v>1012.2762</v>
       </c>
       <c r="G17" t="n">
-        <v>7.943833333333334</v>
+        <v>7.946333333333333</v>
       </c>
       <c r="H17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" t="n">
         <v>0</v>
       </c>
     </row>
@@ -824,24 +877,27 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>7.83</v>
+        <v>7.75</v>
       </c>
       <c r="C18" t="n">
-        <v>7.83</v>
+        <v>7.73</v>
       </c>
       <c r="D18" t="n">
-        <v>7.83</v>
+        <v>7.75</v>
       </c>
       <c r="E18" t="n">
-        <v>7.83</v>
+        <v>7.73</v>
       </c>
       <c r="F18" t="n">
-        <v>88798.89539999999</v>
+        <v>95300.7549</v>
       </c>
       <c r="G18" t="n">
         <v>7.943833333333334</v>
       </c>
       <c r="H18" t="n">
+        <v>0</v>
+      </c>
+      <c r="I18" t="n">
         <v>0</v>
       </c>
     </row>
@@ -850,24 +906,27 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>7.82</v>
+        <v>7.83</v>
       </c>
       <c r="C19" t="n">
-        <v>7.82</v>
+        <v>7.83</v>
       </c>
       <c r="D19" t="n">
-        <v>7.82</v>
+        <v>7.83</v>
       </c>
       <c r="E19" t="n">
-        <v>7.82</v>
+        <v>7.83</v>
       </c>
       <c r="F19" t="n">
-        <v>4052.6122</v>
+        <v>88798.89539999999</v>
       </c>
       <c r="G19" t="n">
-        <v>7.944166666666667</v>
+        <v>7.943833333333334</v>
       </c>
       <c r="H19" t="n">
+        <v>0</v>
+      </c>
+      <c r="I19" t="n">
         <v>0</v>
       </c>
     </row>
@@ -876,24 +935,27 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>7.83</v>
+        <v>7.82</v>
       </c>
       <c r="C20" t="n">
-        <v>7.83</v>
+        <v>7.82</v>
       </c>
       <c r="D20" t="n">
-        <v>7.83</v>
+        <v>7.82</v>
       </c>
       <c r="E20" t="n">
-        <v>7.83</v>
+        <v>7.82</v>
       </c>
       <c r="F20" t="n">
-        <v>14020577.6476</v>
+        <v>4052.6122</v>
       </c>
       <c r="G20" t="n">
-        <v>7.944666666666667</v>
+        <v>7.944166666666667</v>
       </c>
       <c r="H20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
         <v>0</v>
       </c>
     </row>
@@ -914,12 +976,15 @@
         <v>7.83</v>
       </c>
       <c r="F21" t="n">
-        <v>24512798.0064</v>
+        <v>14020577.6476</v>
       </c>
       <c r="G21" t="n">
-        <v>7.944333333333333</v>
+        <v>7.944666666666667</v>
       </c>
       <c r="H21" t="n">
+        <v>0</v>
+      </c>
+      <c r="I21" t="n">
         <v>0</v>
       </c>
     </row>
@@ -940,12 +1005,15 @@
         <v>7.83</v>
       </c>
       <c r="F22" t="n">
-        <v>24141391.976</v>
+        <v>24512798.0064</v>
       </c>
       <c r="G22" t="n">
-        <v>7.943999999999999</v>
+        <v>7.944333333333333</v>
       </c>
       <c r="H22" t="n">
+        <v>0</v>
+      </c>
+      <c r="I22" t="n">
         <v>0</v>
       </c>
     </row>
@@ -966,12 +1034,15 @@
         <v>7.83</v>
       </c>
       <c r="F23" t="n">
-        <v>21077292.2252</v>
+        <v>24141391.976</v>
       </c>
       <c r="G23" t="n">
-        <v>7.941666666666665</v>
+        <v>7.943999999999999</v>
       </c>
       <c r="H23" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" t="n">
         <v>0</v>
       </c>
     </row>
@@ -980,24 +1051,27 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>7.96</v>
+        <v>7.83</v>
       </c>
       <c r="C24" t="n">
-        <v>7.97</v>
+        <v>7.83</v>
       </c>
       <c r="D24" t="n">
-        <v>7.97</v>
+        <v>7.83</v>
       </c>
       <c r="E24" t="n">
-        <v>7.96</v>
+        <v>7.83</v>
       </c>
       <c r="F24" t="n">
-        <v>117321.5809</v>
+        <v>21077292.2252</v>
       </c>
       <c r="G24" t="n">
-        <v>7.941166666666665</v>
+        <v>7.941666666666665</v>
       </c>
       <c r="H24" t="n">
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1006,24 +1080,27 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
+        <v>7.96</v>
+      </c>
+      <c r="C25" t="n">
         <v>7.97</v>
-      </c>
-      <c r="C25" t="n">
-        <v>7.79</v>
       </c>
       <c r="D25" t="n">
         <v>7.97</v>
       </c>
       <c r="E25" t="n">
-        <v>7.79</v>
+        <v>7.96</v>
       </c>
       <c r="F25" t="n">
-        <v>20</v>
+        <v>117321.5809</v>
       </c>
       <c r="G25" t="n">
-        <v>7.937666666666666</v>
+        <v>7.941166666666665</v>
       </c>
       <c r="H25" t="n">
+        <v>0</v>
+      </c>
+      <c r="I25" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1035,21 +1112,24 @@
         <v>7.97</v>
       </c>
       <c r="C26" t="n">
-        <v>7.97</v>
+        <v>7.79</v>
       </c>
       <c r="D26" t="n">
         <v>7.97</v>
       </c>
       <c r="E26" t="n">
-        <v>7.97</v>
+        <v>7.79</v>
       </c>
       <c r="F26" t="n">
-        <v>31536.6687</v>
+        <v>20</v>
       </c>
       <c r="G26" t="n">
-        <v>7.935999999999999</v>
+        <v>7.937666666666666</v>
       </c>
       <c r="H26" t="n">
+        <v>0</v>
+      </c>
+      <c r="I26" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1070,12 +1150,15 @@
         <v>7.97</v>
       </c>
       <c r="F27" t="n">
-        <v>32875.9096</v>
+        <v>31536.6687</v>
       </c>
       <c r="G27" t="n">
-        <v>7.934</v>
+        <v>7.935999999999999</v>
       </c>
       <c r="H27" t="n">
+        <v>0</v>
+      </c>
+      <c r="I27" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1084,24 +1167,27 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>7.88</v>
+        <v>7.97</v>
       </c>
       <c r="C28" t="n">
-        <v>7.88</v>
+        <v>7.97</v>
       </c>
       <c r="D28" t="n">
-        <v>7.88</v>
+        <v>7.97</v>
       </c>
       <c r="E28" t="n">
-        <v>7.88</v>
+        <v>7.97</v>
       </c>
       <c r="F28" t="n">
-        <v>117321.5809</v>
+        <v>32875.9096</v>
       </c>
       <c r="G28" t="n">
-        <v>7.932</v>
+        <v>7.934</v>
       </c>
       <c r="H28" t="n">
+        <v>0</v>
+      </c>
+      <c r="I28" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1110,24 +1196,27 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>7.95</v>
+        <v>7.88</v>
       </c>
       <c r="C29" t="n">
-        <v>7.95</v>
+        <v>7.88</v>
       </c>
       <c r="D29" t="n">
-        <v>7.95</v>
+        <v>7.88</v>
       </c>
       <c r="E29" t="n">
-        <v>7.95</v>
+        <v>7.88</v>
       </c>
       <c r="F29" t="n">
-        <v>2515.723270440252</v>
+        <v>117321.5809</v>
       </c>
       <c r="G29" t="n">
-        <v>7.929666666666667</v>
+        <v>7.932</v>
       </c>
       <c r="H29" t="n">
+        <v>0</v>
+      </c>
+      <c r="I29" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1136,24 +1225,27 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>7.9</v>
+        <v>7.95</v>
       </c>
       <c r="C30" t="n">
-        <v>7.9</v>
+        <v>7.95</v>
       </c>
       <c r="D30" t="n">
-        <v>7.9</v>
+        <v>7.95</v>
       </c>
       <c r="E30" t="n">
-        <v>7.9</v>
+        <v>7.95</v>
       </c>
       <c r="F30" t="n">
-        <v>29625.2516</v>
+        <v>2515.723270440252</v>
       </c>
       <c r="G30" t="n">
-        <v>7.927333333333333</v>
+        <v>7.929666666666667</v>
       </c>
       <c r="H30" t="n">
+        <v>0</v>
+      </c>
+      <c r="I30" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1162,24 +1254,27 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>7.91</v>
+        <v>7.9</v>
       </c>
       <c r="C31" t="n">
-        <v>7.91</v>
+        <v>7.9</v>
       </c>
       <c r="D31" t="n">
-        <v>7.91</v>
+        <v>7.9</v>
       </c>
       <c r="E31" t="n">
-        <v>7.91</v>
+        <v>7.9</v>
       </c>
       <c r="F31" t="n">
-        <v>5724.3427</v>
+        <v>29625.2516</v>
       </c>
       <c r="G31" t="n">
-        <v>7.9275</v>
+        <v>7.927333333333333</v>
       </c>
       <c r="H31" t="n">
+        <v>0</v>
+      </c>
+      <c r="I31" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1188,24 +1283,27 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>7.9</v>
+        <v>7.91</v>
       </c>
       <c r="C32" t="n">
-        <v>7.9</v>
+        <v>7.91</v>
       </c>
       <c r="D32" t="n">
-        <v>7.9</v>
+        <v>7.91</v>
       </c>
       <c r="E32" t="n">
-        <v>7.9</v>
+        <v>7.91</v>
       </c>
       <c r="F32" t="n">
-        <v>142768.5458</v>
+        <v>5724.3427</v>
       </c>
       <c r="G32" t="n">
-        <v>7.926500000000001</v>
+        <v>7.9275</v>
       </c>
       <c r="H32" t="n">
+        <v>0</v>
+      </c>
+      <c r="I32" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1214,24 +1312,27 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>7.91</v>
+        <v>7.9</v>
       </c>
       <c r="C33" t="n">
-        <v>7.91</v>
+        <v>7.9</v>
       </c>
       <c r="D33" t="n">
-        <v>7.91</v>
+        <v>7.9</v>
       </c>
       <c r="E33" t="n">
-        <v>7.91</v>
+        <v>7.9</v>
       </c>
       <c r="F33" t="n">
-        <v>11409.3552</v>
+        <v>142768.5458</v>
       </c>
       <c r="G33" t="n">
-        <v>7.925666666666668</v>
+        <v>7.926500000000001</v>
       </c>
       <c r="H33" t="n">
+        <v>0</v>
+      </c>
+      <c r="I33" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1240,24 +1341,27 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>7.84</v>
+        <v>7.91</v>
       </c>
       <c r="C34" t="n">
-        <v>7.84</v>
+        <v>7.91</v>
       </c>
       <c r="D34" t="n">
-        <v>7.84</v>
+        <v>7.91</v>
       </c>
       <c r="E34" t="n">
-        <v>7.84</v>
+        <v>7.91</v>
       </c>
       <c r="F34" t="n">
-        <v>189318.8775</v>
+        <v>11409.3552</v>
       </c>
       <c r="G34" t="n">
-        <v>7.925000000000001</v>
+        <v>7.925666666666668</v>
       </c>
       <c r="H34" t="n">
+        <v>0</v>
+      </c>
+      <c r="I34" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1278,12 +1382,15 @@
         <v>7.84</v>
       </c>
       <c r="F35" t="n">
-        <v>65920.1201</v>
+        <v>189318.8775</v>
       </c>
       <c r="G35" t="n">
-        <v>7.924333333333334</v>
+        <v>7.925000000000001</v>
       </c>
       <c r="H35" t="n">
+        <v>0</v>
+      </c>
+      <c r="I35" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1304,12 +1411,15 @@
         <v>7.84</v>
       </c>
       <c r="F36" t="n">
-        <v>4190.1572</v>
+        <v>65920.1201</v>
       </c>
       <c r="G36" t="n">
-        <v>7.921833333333334</v>
+        <v>7.924333333333334</v>
       </c>
       <c r="H36" t="n">
+        <v>0</v>
+      </c>
+      <c r="I36" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1318,24 +1428,27 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>7.85</v>
+        <v>7.84</v>
       </c>
       <c r="C37" t="n">
         <v>7.84</v>
       </c>
       <c r="D37" t="n">
-        <v>7.85</v>
+        <v>7.84</v>
       </c>
       <c r="E37" t="n">
         <v>7.84</v>
       </c>
       <c r="F37" t="n">
-        <v>7393.9784</v>
+        <v>4190.1572</v>
       </c>
       <c r="G37" t="n">
-        <v>7.917666666666666</v>
+        <v>7.921833333333334</v>
       </c>
       <c r="H37" t="n">
+        <v>0</v>
+      </c>
+      <c r="I37" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1344,24 +1457,27 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>7.73</v>
+        <v>7.85</v>
       </c>
       <c r="C38" t="n">
-        <v>7.71</v>
+        <v>7.84</v>
       </c>
       <c r="D38" t="n">
-        <v>7.73</v>
+        <v>7.85</v>
       </c>
       <c r="E38" t="n">
-        <v>7.71</v>
+        <v>7.84</v>
       </c>
       <c r="F38" t="n">
-        <v>20578.6106</v>
+        <v>7393.9784</v>
       </c>
       <c r="G38" t="n">
-        <v>7.913833333333333</v>
+        <v>7.917666666666666</v>
       </c>
       <c r="H38" t="n">
+        <v>0</v>
+      </c>
+      <c r="I38" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1370,24 +1486,27 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>7.72</v>
+        <v>7.73</v>
       </c>
       <c r="C39" t="n">
-        <v>7.72</v>
+        <v>7.71</v>
       </c>
       <c r="D39" t="n">
-        <v>7.72</v>
+        <v>7.73</v>
       </c>
       <c r="E39" t="n">
-        <v>7.72</v>
+        <v>7.71</v>
       </c>
       <c r="F39" t="n">
-        <v>2728.5995</v>
+        <v>20578.6106</v>
       </c>
       <c r="G39" t="n">
-        <v>7.908</v>
+        <v>7.913833333333333</v>
       </c>
       <c r="H39" t="n">
+        <v>0</v>
+      </c>
+      <c r="I39" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1396,24 +1515,27 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>7.71</v>
+        <v>7.72</v>
       </c>
       <c r="C40" t="n">
-        <v>7.71</v>
+        <v>7.72</v>
       </c>
       <c r="D40" t="n">
-        <v>7.71</v>
+        <v>7.72</v>
       </c>
       <c r="E40" t="n">
-        <v>7.71</v>
+        <v>7.72</v>
       </c>
       <c r="F40" t="n">
         <v>2728.5995</v>
       </c>
       <c r="G40" t="n">
-        <v>7.905333333333333</v>
+        <v>7.908</v>
       </c>
       <c r="H40" t="n">
+        <v>0</v>
+      </c>
+      <c r="I40" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1425,21 +1547,24 @@
         <v>7.71</v>
       </c>
       <c r="C41" t="n">
-        <v>7.69</v>
+        <v>7.71</v>
       </c>
       <c r="D41" t="n">
         <v>7.71</v>
       </c>
       <c r="E41" t="n">
-        <v>7.69</v>
+        <v>7.71</v>
       </c>
       <c r="F41" t="n">
-        <v>171899.8623</v>
+        <v>2728.5995</v>
       </c>
       <c r="G41" t="n">
-        <v>7.898833333333333</v>
+        <v>7.905333333333333</v>
       </c>
       <c r="H41" t="n">
+        <v>0</v>
+      </c>
+      <c r="I41" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1448,24 +1573,27 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>7.7</v>
+        <v>7.71</v>
       </c>
       <c r="C42" t="n">
-        <v>7.7</v>
+        <v>7.69</v>
       </c>
       <c r="D42" t="n">
-        <v>7.7</v>
+        <v>7.71</v>
       </c>
       <c r="E42" t="n">
-        <v>7.7</v>
+        <v>7.69</v>
       </c>
       <c r="F42" t="n">
-        <v>73334.2856</v>
+        <v>171899.8623</v>
       </c>
       <c r="G42" t="n">
-        <v>7.8925</v>
+        <v>7.898833333333333</v>
       </c>
       <c r="H42" t="n">
+        <v>0</v>
+      </c>
+      <c r="I42" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1474,24 +1602,27 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>7.69</v>
+        <v>7.7</v>
       </c>
       <c r="C43" t="n">
-        <v>7.69</v>
+        <v>7.7</v>
       </c>
       <c r="D43" t="n">
-        <v>7.69</v>
+        <v>7.7</v>
       </c>
       <c r="E43" t="n">
-        <v>7.69</v>
+        <v>7.7</v>
       </c>
       <c r="F43" t="n">
-        <v>35898.2272</v>
+        <v>73334.2856</v>
       </c>
       <c r="G43" t="n">
-        <v>7.886166666666667</v>
+        <v>7.8925</v>
       </c>
       <c r="H43" t="n">
+        <v>0</v>
+      </c>
+      <c r="I43" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1500,24 +1631,27 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>7.65</v>
+        <v>7.69</v>
       </c>
       <c r="C44" t="n">
-        <v>7.64</v>
+        <v>7.69</v>
       </c>
       <c r="D44" t="n">
-        <v>7.65</v>
+        <v>7.69</v>
       </c>
       <c r="E44" t="n">
-        <v>7.64</v>
+        <v>7.69</v>
       </c>
       <c r="F44" t="n">
-        <v>163184.8129</v>
+        <v>35898.2272</v>
       </c>
       <c r="G44" t="n">
-        <v>7.878833333333334</v>
+        <v>7.886166666666667</v>
       </c>
       <c r="H44" t="n">
+        <v>0</v>
+      </c>
+      <c r="I44" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1529,21 +1663,24 @@
         <v>7.65</v>
       </c>
       <c r="C45" t="n">
-        <v>7.65</v>
+        <v>7.64</v>
       </c>
       <c r="D45" t="n">
         <v>7.65</v>
       </c>
       <c r="E45" t="n">
-        <v>7.65</v>
+        <v>7.64</v>
       </c>
       <c r="F45" t="n">
-        <v>28916.5262</v>
+        <v>163184.8129</v>
       </c>
       <c r="G45" t="n">
-        <v>7.874666666666667</v>
+        <v>7.878833333333334</v>
       </c>
       <c r="H45" t="n">
+        <v>0</v>
+      </c>
+      <c r="I45" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1555,21 +1692,24 @@
         <v>7.65</v>
       </c>
       <c r="C46" t="n">
-        <v>7.64</v>
+        <v>7.65</v>
       </c>
       <c r="D46" t="n">
         <v>7.65</v>
       </c>
       <c r="E46" t="n">
-        <v>7.64</v>
+        <v>7.65</v>
       </c>
       <c r="F46" t="n">
-        <v>16809.811</v>
+        <v>28916.5262</v>
       </c>
       <c r="G46" t="n">
-        <v>7.867666666666667</v>
+        <v>7.874666666666667</v>
       </c>
       <c r="H46" t="n">
+        <v>0</v>
+      </c>
+      <c r="I46" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1581,21 +1721,24 @@
         <v>7.65</v>
       </c>
       <c r="C47" t="n">
+        <v>7.64</v>
+      </c>
+      <c r="D47" t="n">
         <v>7.65</v>
       </c>
-      <c r="D47" t="n">
-        <v>7.66</v>
-      </c>
       <c r="E47" t="n">
-        <v>7.65</v>
+        <v>7.64</v>
       </c>
       <c r="F47" t="n">
-        <v>411306.6717</v>
+        <v>16809.811</v>
       </c>
       <c r="G47" t="n">
-        <v>7.8635</v>
+        <v>7.867666666666667</v>
       </c>
       <c r="H47" t="n">
+        <v>0</v>
+      </c>
+      <c r="I47" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1604,7 +1747,7 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>7.66</v>
+        <v>7.65</v>
       </c>
       <c r="C48" t="n">
         <v>7.65</v>
@@ -1616,12 +1759,15 @@
         <v>7.65</v>
       </c>
       <c r="F48" t="n">
-        <v>58624.5401</v>
+        <v>411306.6717</v>
       </c>
       <c r="G48" t="n">
-        <v>7.859333333333334</v>
+        <v>7.8635</v>
       </c>
       <c r="H48" t="n">
+        <v>1</v>
+      </c>
+      <c r="I48" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1630,24 +1776,27 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>7.67</v>
+        <v>7.66</v>
       </c>
       <c r="C49" t="n">
-        <v>7.67</v>
+        <v>7.65</v>
       </c>
       <c r="D49" t="n">
-        <v>7.67</v>
+        <v>7.66</v>
       </c>
       <c r="E49" t="n">
-        <v>7.67</v>
+        <v>7.65</v>
       </c>
       <c r="F49" t="n">
-        <v>8857.8878</v>
+        <v>58624.5401</v>
       </c>
       <c r="G49" t="n">
-        <v>7.853</v>
+        <v>7.859333333333334</v>
       </c>
       <c r="H49" t="n">
+        <v>1</v>
+      </c>
+      <c r="I49" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1659,21 +1808,24 @@
         <v>7.67</v>
       </c>
       <c r="C50" t="n">
-        <v>7.7</v>
+        <v>7.67</v>
       </c>
       <c r="D50" t="n">
-        <v>7.7</v>
+        <v>7.67</v>
       </c>
       <c r="E50" t="n">
         <v>7.67</v>
       </c>
       <c r="F50" t="n">
-        <v>275858.5796</v>
+        <v>8857.8878</v>
       </c>
       <c r="G50" t="n">
-        <v>7.847166666666666</v>
+        <v>7.853</v>
       </c>
       <c r="H50" t="n">
+        <v>1</v>
+      </c>
+      <c r="I50" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1682,24 +1834,27 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>7.66</v>
+        <v>7.67</v>
       </c>
       <c r="C51" t="n">
-        <v>7.66</v>
+        <v>7.7</v>
       </c>
       <c r="D51" t="n">
-        <v>7.66</v>
+        <v>7.7</v>
       </c>
       <c r="E51" t="n">
-        <v>7.66</v>
+        <v>7.67</v>
       </c>
       <c r="F51" t="n">
-        <v>10.012</v>
+        <v>275858.5796</v>
       </c>
       <c r="G51" t="n">
-        <v>7.840666666666666</v>
+        <v>7.847166666666666</v>
       </c>
       <c r="H51" t="n">
+        <v>1</v>
+      </c>
+      <c r="I51" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1708,24 +1863,27 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>7.73</v>
+        <v>7.66</v>
       </c>
       <c r="C52" t="n">
-        <v>7.73</v>
+        <v>7.66</v>
       </c>
       <c r="D52" t="n">
-        <v>7.73</v>
+        <v>7.66</v>
       </c>
       <c r="E52" t="n">
-        <v>7.73</v>
+        <v>7.66</v>
       </c>
       <c r="F52" t="n">
-        <v>45</v>
+        <v>10.012</v>
       </c>
       <c r="G52" t="n">
-        <v>7.838333333333334</v>
+        <v>7.840666666666666</v>
       </c>
       <c r="H52" t="n">
+        <v>1</v>
+      </c>
+      <c r="I52" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1746,12 +1904,15 @@
         <v>7.73</v>
       </c>
       <c r="F53" t="n">
-        <v>52764.6287</v>
+        <v>45</v>
       </c>
       <c r="G53" t="n">
-        <v>7.835333333333334</v>
+        <v>7.838333333333334</v>
       </c>
       <c r="H53" t="n">
+        <v>1</v>
+      </c>
+      <c r="I53" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1760,24 +1921,27 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>7.7</v>
+        <v>7.73</v>
       </c>
       <c r="C54" t="n">
-        <v>7.7</v>
+        <v>7.73</v>
       </c>
       <c r="D54" t="n">
-        <v>7.7</v>
+        <v>7.73</v>
       </c>
       <c r="E54" t="n">
-        <v>7.7</v>
+        <v>7.73</v>
       </c>
       <c r="F54" t="n">
-        <v>61497.0361</v>
+        <v>52764.6287</v>
       </c>
       <c r="G54" t="n">
-        <v>7.832333333333334</v>
+        <v>7.835333333333334</v>
       </c>
       <c r="H54" t="n">
+        <v>0</v>
+      </c>
+      <c r="I54" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1786,24 +1950,27 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>7.72</v>
+        <v>7.7</v>
       </c>
       <c r="C55" t="n">
-        <v>7.71</v>
+        <v>7.7</v>
       </c>
       <c r="D55" t="n">
-        <v>7.72</v>
+        <v>7.7</v>
       </c>
       <c r="E55" t="n">
-        <v>7.71</v>
+        <v>7.7</v>
       </c>
       <c r="F55" t="n">
-        <v>23929.0047</v>
+        <v>61497.0361</v>
       </c>
       <c r="G55" t="n">
-        <v>7.829499999999999</v>
+        <v>7.832333333333334</v>
       </c>
       <c r="H55" t="n">
+        <v>0</v>
+      </c>
+      <c r="I55" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1812,24 +1979,27 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>7.71</v>
+        <v>7.72</v>
       </c>
       <c r="C56" t="n">
         <v>7.71</v>
       </c>
       <c r="D56" t="n">
-        <v>7.71</v>
+        <v>7.72</v>
       </c>
       <c r="E56" t="n">
         <v>7.71</v>
       </c>
       <c r="F56" t="n">
-        <v>37550.9951</v>
+        <v>23929.0047</v>
       </c>
       <c r="G56" t="n">
-        <v>7.826666666666666</v>
+        <v>7.829499999999999</v>
       </c>
       <c r="H56" t="n">
+        <v>0</v>
+      </c>
+      <c r="I56" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1838,24 +2008,27 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>7.76</v>
+        <v>7.71</v>
       </c>
       <c r="C57" t="n">
-        <v>7.76</v>
+        <v>7.71</v>
       </c>
       <c r="D57" t="n">
-        <v>7.76</v>
+        <v>7.71</v>
       </c>
       <c r="E57" t="n">
-        <v>7.76</v>
+        <v>7.71</v>
       </c>
       <c r="F57" t="n">
-        <v>1100</v>
+        <v>37550.9951</v>
       </c>
       <c r="G57" t="n">
-        <v>7.822833333333333</v>
+        <v>7.826666666666666</v>
       </c>
       <c r="H57" t="n">
+        <v>0</v>
+      </c>
+      <c r="I57" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1876,12 +2049,15 @@
         <v>7.76</v>
       </c>
       <c r="F58" t="n">
-        <v>1619.5533</v>
+        <v>1100</v>
       </c>
       <c r="G58" t="n">
-        <v>7.818999999999999</v>
+        <v>7.822833333333333</v>
       </c>
       <c r="H58" t="n">
+        <v>0</v>
+      </c>
+      <c r="I58" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1902,12 +2078,15 @@
         <v>7.76</v>
       </c>
       <c r="F59" t="n">
-        <v>18380.4467</v>
+        <v>1619.5533</v>
       </c>
       <c r="G59" t="n">
-        <v>7.815333333333331</v>
+        <v>7.818999999999999</v>
       </c>
       <c r="H59" t="n">
+        <v>0</v>
+      </c>
+      <c r="I59" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1916,24 +2095,27 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>7.74</v>
+        <v>7.76</v>
       </c>
       <c r="C60" t="n">
-        <v>7.74</v>
+        <v>7.76</v>
       </c>
       <c r="D60" t="n">
-        <v>7.74</v>
+        <v>7.76</v>
       </c>
       <c r="E60" t="n">
-        <v>7.74</v>
+        <v>7.76</v>
       </c>
       <c r="F60" t="n">
-        <v>40712.375</v>
+        <v>18380.4467</v>
       </c>
       <c r="G60" t="n">
-        <v>7.811333333333332</v>
+        <v>7.815333333333331</v>
       </c>
       <c r="H60" t="n">
+        <v>0</v>
+      </c>
+      <c r="I60" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1945,21 +2127,24 @@
         <v>7.74</v>
       </c>
       <c r="C61" t="n">
-        <v>7.73</v>
+        <v>7.74</v>
       </c>
       <c r="D61" t="n">
         <v>7.74</v>
       </c>
       <c r="E61" t="n">
-        <v>7.73</v>
+        <v>7.74</v>
       </c>
       <c r="F61" t="n">
-        <v>90615.1271</v>
+        <v>40712.375</v>
       </c>
       <c r="G61" t="n">
-        <v>7.807166666666665</v>
+        <v>7.811333333333332</v>
       </c>
       <c r="H61" t="n">
+        <v>0</v>
+      </c>
+      <c r="I61" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1968,24 +2153,27 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>7.71</v>
+        <v>7.74</v>
       </c>
       <c r="C62" t="n">
-        <v>7.71</v>
+        <v>7.73</v>
       </c>
       <c r="D62" t="n">
-        <v>7.71</v>
+        <v>7.74</v>
       </c>
       <c r="E62" t="n">
-        <v>7.71</v>
+        <v>7.73</v>
       </c>
       <c r="F62" t="n">
-        <v>1050</v>
+        <v>90615.1271</v>
       </c>
       <c r="G62" t="n">
-        <v>7.802666666666664</v>
+        <v>7.807166666666665</v>
       </c>
       <c r="H62" t="n">
+        <v>0</v>
+      </c>
+      <c r="I62" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1994,24 +2182,27 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>7.67</v>
+        <v>7.71</v>
       </c>
       <c r="C63" t="n">
-        <v>7.64</v>
+        <v>7.71</v>
       </c>
       <c r="D63" t="n">
-        <v>7.67</v>
+        <v>7.71</v>
       </c>
       <c r="E63" t="n">
-        <v>7.64</v>
+        <v>7.71</v>
       </c>
       <c r="F63" t="n">
-        <v>60828.7663</v>
+        <v>1050</v>
       </c>
       <c r="G63" t="n">
-        <v>7.796999999999997</v>
+        <v>7.802666666666664</v>
       </c>
       <c r="H63" t="n">
+        <v>0</v>
+      </c>
+      <c r="I63" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2020,24 +2211,27 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>7.71</v>
+        <v>7.67</v>
       </c>
       <c r="C64" t="n">
-        <v>7.71</v>
+        <v>7.64</v>
       </c>
       <c r="D64" t="n">
-        <v>7.71</v>
+        <v>7.67</v>
       </c>
       <c r="E64" t="n">
-        <v>7.71</v>
+        <v>7.64</v>
       </c>
       <c r="F64" t="n">
-        <v>5476.9724</v>
+        <v>60828.7663</v>
       </c>
       <c r="G64" t="n">
-        <v>7.792499999999996</v>
+        <v>7.796999999999997</v>
       </c>
       <c r="H64" t="n">
+        <v>0</v>
+      </c>
+      <c r="I64" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2046,24 +2240,27 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>7.72</v>
+        <v>7.71</v>
       </c>
       <c r="C65" t="n">
         <v>7.71</v>
       </c>
       <c r="D65" t="n">
-        <v>7.72</v>
+        <v>7.71</v>
       </c>
       <c r="E65" t="n">
         <v>7.71</v>
       </c>
       <c r="F65" t="n">
-        <v>1931.0586</v>
+        <v>5476.9724</v>
       </c>
       <c r="G65" t="n">
-        <v>7.787999999999996</v>
+        <v>7.792499999999996</v>
       </c>
       <c r="H65" t="n">
+        <v>0</v>
+      </c>
+      <c r="I65" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2072,24 +2269,27 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>7.71</v>
+        <v>7.72</v>
       </c>
       <c r="C66" t="n">
         <v>7.71</v>
       </c>
       <c r="D66" t="n">
-        <v>7.71</v>
+        <v>7.72</v>
       </c>
       <c r="E66" t="n">
         <v>7.71</v>
       </c>
       <c r="F66" t="n">
-        <v>261.6083</v>
+        <v>1931.0586</v>
       </c>
       <c r="G66" t="n">
-        <v>7.783499999999995</v>
+        <v>7.787999999999996</v>
       </c>
       <c r="H66" t="n">
+        <v>0</v>
+      </c>
+      <c r="I66" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2098,24 +2298,27 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>7.67</v>
+        <v>7.71</v>
       </c>
       <c r="C67" t="n">
-        <v>7.67</v>
+        <v>7.71</v>
       </c>
       <c r="D67" t="n">
-        <v>7.67</v>
+        <v>7.71</v>
       </c>
       <c r="E67" t="n">
-        <v>7.67</v>
+        <v>7.71</v>
       </c>
       <c r="F67" t="n">
-        <v>55000</v>
+        <v>261.6083</v>
       </c>
       <c r="G67" t="n">
-        <v>7.778333333333328</v>
+        <v>7.783499999999995</v>
       </c>
       <c r="H67" t="n">
+        <v>0</v>
+      </c>
+      <c r="I67" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2124,24 +2327,27 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>7.69</v>
+        <v>7.67</v>
       </c>
       <c r="C68" t="n">
-        <v>7.68</v>
+        <v>7.67</v>
       </c>
       <c r="D68" t="n">
-        <v>7.69</v>
+        <v>7.67</v>
       </c>
       <c r="E68" t="n">
-        <v>7.68</v>
+        <v>7.67</v>
       </c>
       <c r="F68" t="n">
-        <v>44047.7513</v>
+        <v>55000</v>
       </c>
       <c r="G68" t="n">
-        <v>7.773333333333328</v>
+        <v>7.778333333333328</v>
       </c>
       <c r="H68" t="n">
+        <v>0</v>
+      </c>
+      <c r="I68" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2150,24 +2356,27 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>7.67</v>
+        <v>7.69</v>
       </c>
       <c r="C69" t="n">
-        <v>7.67</v>
+        <v>7.68</v>
       </c>
       <c r="D69" t="n">
-        <v>7.67</v>
+        <v>7.69</v>
       </c>
       <c r="E69" t="n">
-        <v>7.67</v>
+        <v>7.68</v>
       </c>
       <c r="F69" t="n">
-        <v>23752.8411</v>
+        <v>44047.7513</v>
       </c>
       <c r="G69" t="n">
-        <v>7.768166666666661</v>
+        <v>7.773333333333328</v>
       </c>
       <c r="H69" t="n">
+        <v>0</v>
+      </c>
+      <c r="I69" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2179,21 +2388,24 @@
         <v>7.67</v>
       </c>
       <c r="C70" t="n">
-        <v>7.66</v>
+        <v>7.67</v>
       </c>
       <c r="D70" t="n">
         <v>7.67</v>
       </c>
       <c r="E70" t="n">
-        <v>7.66</v>
+        <v>7.67</v>
       </c>
       <c r="F70" t="n">
-        <v>75336.63619999999</v>
+        <v>23752.8411</v>
       </c>
       <c r="G70" t="n">
-        <v>7.764999999999995</v>
+        <v>7.768166666666661</v>
       </c>
       <c r="H70" t="n">
+        <v>0</v>
+      </c>
+      <c r="I70" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2202,24 +2414,27 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>7.65</v>
+        <v>7.67</v>
       </c>
       <c r="C71" t="n">
-        <v>7.65</v>
+        <v>7.66</v>
       </c>
       <c r="D71" t="n">
-        <v>7.65</v>
+        <v>7.67</v>
       </c>
       <c r="E71" t="n">
-        <v>7.64</v>
+        <v>7.66</v>
       </c>
       <c r="F71" t="n">
-        <v>99111.2558</v>
+        <v>75336.63619999999</v>
       </c>
       <c r="G71" t="n">
-        <v>7.762499999999994</v>
+        <v>7.764999999999995</v>
       </c>
       <c r="H71" t="n">
+        <v>0</v>
+      </c>
+      <c r="I71" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2228,24 +2443,27 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>7.64</v>
+        <v>7.65</v>
       </c>
       <c r="C72" t="n">
-        <v>7.64</v>
+        <v>7.65</v>
       </c>
       <c r="D72" t="n">
-        <v>7.64</v>
+        <v>7.65</v>
       </c>
       <c r="E72" t="n">
         <v>7.64</v>
       </c>
       <c r="F72" t="n">
-        <v>504471.9858</v>
+        <v>99111.2558</v>
       </c>
       <c r="G72" t="n">
-        <v>7.760333333333327</v>
+        <v>7.762499999999994</v>
       </c>
       <c r="H72" t="n">
+        <v>0</v>
+      </c>
+      <c r="I72" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2254,24 +2472,27 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>7.6</v>
+        <v>7.64</v>
       </c>
       <c r="C73" t="n">
-        <v>7.59</v>
+        <v>7.64</v>
       </c>
       <c r="D73" t="n">
-        <v>7.6</v>
+        <v>7.64</v>
       </c>
       <c r="E73" t="n">
-        <v>7.59</v>
+        <v>7.64</v>
       </c>
       <c r="F73" t="n">
-        <v>73873.6067</v>
+        <v>504471.9858</v>
       </c>
       <c r="G73" t="n">
-        <v>7.757166666666661</v>
+        <v>7.760333333333327</v>
       </c>
       <c r="H73" t="n">
+        <v>0</v>
+      </c>
+      <c r="I73" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2280,24 +2501,27 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>7.67</v>
+        <v>7.6</v>
       </c>
       <c r="C74" t="n">
-        <v>7.71</v>
+        <v>7.59</v>
       </c>
       <c r="D74" t="n">
-        <v>7.72</v>
+        <v>7.6</v>
       </c>
       <c r="E74" t="n">
-        <v>7.67</v>
+        <v>7.59</v>
       </c>
       <c r="F74" t="n">
-        <v>15000</v>
+        <v>73873.6067</v>
       </c>
       <c r="G74" t="n">
-        <v>7.756166666666661</v>
+        <v>7.757166666666661</v>
       </c>
       <c r="H74" t="n">
+        <v>0</v>
+      </c>
+      <c r="I74" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2306,24 +2530,27 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>7.68</v>
+        <v>7.67</v>
       </c>
       <c r="C75" t="n">
-        <v>7.68</v>
+        <v>7.71</v>
       </c>
       <c r="D75" t="n">
-        <v>7.68</v>
+        <v>7.72</v>
       </c>
       <c r="E75" t="n">
-        <v>7.68</v>
+        <v>7.67</v>
       </c>
       <c r="F75" t="n">
-        <v>7807.552</v>
+        <v>15000</v>
       </c>
       <c r="G75" t="n">
-        <v>7.754499999999995</v>
+        <v>7.756166666666661</v>
       </c>
       <c r="H75" t="n">
+        <v>0</v>
+      </c>
+      <c r="I75" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2335,21 +2562,24 @@
         <v>7.68</v>
       </c>
       <c r="C76" t="n">
-        <v>7.7</v>
+        <v>7.68</v>
       </c>
       <c r="D76" t="n">
-        <v>7.7</v>
+        <v>7.68</v>
       </c>
       <c r="E76" t="n">
         <v>7.68</v>
       </c>
       <c r="F76" t="n">
-        <v>57485.2396</v>
+        <v>7807.552</v>
       </c>
       <c r="G76" t="n">
-        <v>7.752499999999995</v>
+        <v>7.754499999999995</v>
       </c>
       <c r="H76" t="n">
+        <v>0</v>
+      </c>
+      <c r="I76" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2358,24 +2588,27 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>7.72</v>
+        <v>7.68</v>
       </c>
       <c r="C77" t="n">
-        <v>7.72</v>
+        <v>7.7</v>
       </c>
       <c r="D77" t="n">
-        <v>7.72</v>
+        <v>7.7</v>
       </c>
       <c r="E77" t="n">
-        <v>7.72</v>
+        <v>7.68</v>
       </c>
       <c r="F77" t="n">
-        <v>2186.0103</v>
+        <v>57485.2396</v>
       </c>
       <c r="G77" t="n">
-        <v>7.752333333333328</v>
+        <v>7.752499999999995</v>
       </c>
       <c r="H77" t="n">
+        <v>0</v>
+      </c>
+      <c r="I77" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2396,12 +2629,15 @@
         <v>7.72</v>
       </c>
       <c r="F78" t="n">
-        <v>491.8523</v>
+        <v>2186.0103</v>
       </c>
       <c r="G78" t="n">
-        <v>7.750499999999996</v>
+        <v>7.752333333333328</v>
       </c>
       <c r="H78" t="n">
+        <v>0</v>
+      </c>
+      <c r="I78" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2410,24 +2646,27 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>7.68</v>
+        <v>7.72</v>
       </c>
       <c r="C79" t="n">
-        <v>7.68</v>
+        <v>7.72</v>
       </c>
       <c r="D79" t="n">
-        <v>7.68</v>
+        <v>7.72</v>
       </c>
       <c r="E79" t="n">
-        <v>7.68</v>
+        <v>7.72</v>
       </c>
       <c r="F79" t="n">
-        <v>5000</v>
+        <v>491.8523</v>
       </c>
       <c r="G79" t="n">
-        <v>7.748166666666663</v>
+        <v>7.750499999999996</v>
       </c>
       <c r="H79" t="n">
+        <v>0</v>
+      </c>
+      <c r="I79" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2436,24 +2675,27 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>7.72</v>
+        <v>7.68</v>
       </c>
       <c r="C80" t="n">
-        <v>7.72</v>
+        <v>7.68</v>
       </c>
       <c r="D80" t="n">
-        <v>7.72</v>
+        <v>7.68</v>
       </c>
       <c r="E80" t="n">
-        <v>7.72</v>
+        <v>7.68</v>
       </c>
       <c r="F80" t="n">
-        <v>25</v>
+        <v>5000</v>
       </c>
       <c r="G80" t="n">
-        <v>7.74633333333333</v>
+        <v>7.748166666666663</v>
       </c>
       <c r="H80" t="n">
+        <v>0</v>
+      </c>
+      <c r="I80" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2462,24 +2704,27 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>7.7</v>
+        <v>7.72</v>
       </c>
       <c r="C81" t="n">
-        <v>7.7</v>
+        <v>7.72</v>
       </c>
       <c r="D81" t="n">
-        <v>7.7</v>
+        <v>7.72</v>
       </c>
       <c r="E81" t="n">
-        <v>7.7</v>
+        <v>7.72</v>
       </c>
       <c r="F81" t="n">
-        <v>10290</v>
+        <v>25</v>
       </c>
       <c r="G81" t="n">
-        <v>7.744166666666663</v>
+        <v>7.74633333333333</v>
       </c>
       <c r="H81" t="n">
+        <v>0</v>
+      </c>
+      <c r="I81" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2500,12 +2745,15 @@
         <v>7.7</v>
       </c>
       <c r="F82" t="n">
-        <v>10300</v>
+        <v>10290</v>
       </c>
       <c r="G82" t="n">
-        <v>7.741999999999996</v>
+        <v>7.744166666666663</v>
       </c>
       <c r="H82" t="n">
+        <v>0</v>
+      </c>
+      <c r="I82" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2514,24 +2762,27 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>7.72</v>
+        <v>7.7</v>
       </c>
       <c r="C83" t="n">
-        <v>7.72</v>
+        <v>7.7</v>
       </c>
       <c r="D83" t="n">
-        <v>7.72</v>
+        <v>7.7</v>
       </c>
       <c r="E83" t="n">
-        <v>7.72</v>
+        <v>7.7</v>
       </c>
       <c r="F83" t="n">
-        <v>32455.3785</v>
+        <v>10300</v>
       </c>
       <c r="G83" t="n">
-        <v>7.740166666666664</v>
+        <v>7.741999999999996</v>
       </c>
       <c r="H83" t="n">
+        <v>0</v>
+      </c>
+      <c r="I83" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2540,24 +2791,27 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>7.73</v>
+        <v>7.72</v>
       </c>
       <c r="C84" t="n">
-        <v>7.73</v>
+        <v>7.72</v>
       </c>
       <c r="D84" t="n">
-        <v>7.73</v>
+        <v>7.72</v>
       </c>
       <c r="E84" t="n">
-        <v>7.73</v>
+        <v>7.72</v>
       </c>
       <c r="F84" t="n">
-        <v>5000</v>
+        <v>32455.3785</v>
       </c>
       <c r="G84" t="n">
-        <v>7.736166666666664</v>
+        <v>7.740166666666664</v>
       </c>
       <c r="H84" t="n">
+        <v>0</v>
+      </c>
+      <c r="I84" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2566,24 +2820,27 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>7.7</v>
+        <v>7.73</v>
       </c>
       <c r="C85" t="n">
-        <v>7.69</v>
+        <v>7.73</v>
       </c>
       <c r="D85" t="n">
-        <v>7.7</v>
+        <v>7.73</v>
       </c>
       <c r="E85" t="n">
-        <v>7.69</v>
+        <v>7.73</v>
       </c>
       <c r="F85" t="n">
-        <v>74999.9999</v>
+        <v>5000</v>
       </c>
       <c r="G85" t="n">
-        <v>7.734499999999997</v>
+        <v>7.736166666666664</v>
       </c>
       <c r="H85" t="n">
+        <v>0</v>
+      </c>
+      <c r="I85" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2592,24 +2849,27 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>7.6</v>
+        <v>7.7</v>
       </c>
       <c r="C86" t="n">
-        <v>7.6</v>
+        <v>7.69</v>
       </c>
       <c r="D86" t="n">
-        <v>7.6</v>
+        <v>7.7</v>
       </c>
       <c r="E86" t="n">
-        <v>7.6</v>
+        <v>7.69</v>
       </c>
       <c r="F86" t="n">
-        <v>27.8507</v>
+        <v>74999.9999</v>
       </c>
       <c r="G86" t="n">
-        <v>7.72833333333333</v>
+        <v>7.734499999999997</v>
       </c>
       <c r="H86" t="n">
+        <v>0</v>
+      </c>
+      <c r="I86" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2630,12 +2890,15 @@
         <v>7.6</v>
       </c>
       <c r="F87" t="n">
-        <v>30</v>
+        <v>27.8507</v>
       </c>
       <c r="G87" t="n">
-        <v>7.722166666666664</v>
+        <v>7.72833333333333</v>
       </c>
       <c r="H87" t="n">
+        <v>0</v>
+      </c>
+      <c r="I87" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2644,24 +2907,27 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>7.73</v>
+        <v>7.6</v>
       </c>
       <c r="C88" t="n">
-        <v>7.73</v>
+        <v>7.6</v>
       </c>
       <c r="D88" t="n">
-        <v>7.73</v>
+        <v>7.6</v>
       </c>
       <c r="E88" t="n">
-        <v>7.73</v>
+        <v>7.6</v>
       </c>
       <c r="F88" t="n">
-        <v>1255.6375</v>
+        <v>30</v>
       </c>
       <c r="G88" t="n">
-        <v>7.719666666666664</v>
+        <v>7.722166666666664</v>
       </c>
       <c r="H88" t="n">
+        <v>0</v>
+      </c>
+      <c r="I88" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2673,21 +2939,24 @@
         <v>7.73</v>
       </c>
       <c r="C89" t="n">
-        <v>7.82</v>
+        <v>7.73</v>
       </c>
       <c r="D89" t="n">
-        <v>7.82</v>
+        <v>7.73</v>
       </c>
       <c r="E89" t="n">
         <v>7.73</v>
       </c>
       <c r="F89" t="n">
-        <v>102418.8381</v>
+        <v>1255.6375</v>
       </c>
       <c r="G89" t="n">
-        <v>7.717499999999998</v>
+        <v>7.719666666666664</v>
       </c>
       <c r="H89" t="n">
+        <v>0</v>
+      </c>
+      <c r="I89" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2696,24 +2965,27 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>7.83</v>
+        <v>7.73</v>
       </c>
       <c r="C90" t="n">
-        <v>7.81</v>
+        <v>7.82</v>
       </c>
       <c r="D90" t="n">
-        <v>7.84</v>
+        <v>7.82</v>
       </c>
       <c r="E90" t="n">
-        <v>7.81</v>
+        <v>7.73</v>
       </c>
       <c r="F90" t="n">
-        <v>73547.3014</v>
+        <v>102418.8381</v>
       </c>
       <c r="G90" t="n">
-        <v>7.715999999999998</v>
+        <v>7.717499999999998</v>
       </c>
       <c r="H90" t="n">
+        <v>0</v>
+      </c>
+      <c r="I90" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2722,24 +2994,27 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>7.8</v>
+        <v>7.83</v>
       </c>
       <c r="C91" t="n">
-        <v>7.8</v>
+        <v>7.81</v>
       </c>
       <c r="D91" t="n">
-        <v>7.8</v>
+        <v>7.84</v>
       </c>
       <c r="E91" t="n">
-        <v>7.8</v>
+        <v>7.81</v>
       </c>
       <c r="F91" t="n">
-        <v>55011.3103</v>
+        <v>73547.3014</v>
       </c>
       <c r="G91" t="n">
-        <v>7.714166666666665</v>
+        <v>7.715999999999998</v>
       </c>
       <c r="H91" t="n">
+        <v>0</v>
+      </c>
+      <c r="I91" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2748,24 +3023,27 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>7.82</v>
+        <v>7.8</v>
       </c>
       <c r="C92" t="n">
-        <v>7.83</v>
+        <v>7.8</v>
       </c>
       <c r="D92" t="n">
-        <v>7.83</v>
+        <v>7.8</v>
       </c>
       <c r="E92" t="n">
-        <v>7.82</v>
+        <v>7.8</v>
       </c>
       <c r="F92" t="n">
-        <v>3000</v>
+        <v>55011.3103</v>
       </c>
       <c r="G92" t="n">
-        <v>7.712999999999997</v>
+        <v>7.714166666666665</v>
       </c>
       <c r="H92" t="n">
+        <v>0</v>
+      </c>
+      <c r="I92" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2774,24 +3052,27 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
+        <v>7.82</v>
+      </c>
+      <c r="C93" t="n">
         <v>7.83</v>
       </c>
-      <c r="C93" t="n">
-        <v>7.85</v>
-      </c>
       <c r="D93" t="n">
-        <v>7.85</v>
+        <v>7.83</v>
       </c>
       <c r="E93" t="n">
-        <v>7.83</v>
+        <v>7.82</v>
       </c>
       <c r="F93" t="n">
-        <v>125643.2072</v>
+        <v>3000</v>
       </c>
       <c r="G93" t="n">
-        <v>7.711999999999998</v>
+        <v>7.712999999999997</v>
       </c>
       <c r="H93" t="n">
+        <v>0</v>
+      </c>
+      <c r="I93" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2800,24 +3081,27 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>7.88</v>
+        <v>7.83</v>
       </c>
       <c r="C94" t="n">
-        <v>7.92</v>
+        <v>7.85</v>
       </c>
       <c r="D94" t="n">
-        <v>7.92</v>
+        <v>7.85</v>
       </c>
       <c r="E94" t="n">
-        <v>7.88</v>
+        <v>7.83</v>
       </c>
       <c r="F94" t="n">
-        <v>55055</v>
+        <v>125643.2072</v>
       </c>
       <c r="G94" t="n">
-        <v>7.713333333333332</v>
+        <v>7.711999999999998</v>
       </c>
       <c r="H94" t="n">
+        <v>0</v>
+      </c>
+      <c r="I94" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2826,24 +3110,27 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>7.82</v>
+        <v>7.88</v>
       </c>
       <c r="C95" t="n">
-        <v>7.82</v>
+        <v>7.92</v>
       </c>
       <c r="D95" t="n">
-        <v>7.82</v>
+        <v>7.92</v>
       </c>
       <c r="E95" t="n">
-        <v>7.82</v>
+        <v>7.88</v>
       </c>
       <c r="F95" t="n">
-        <v>50</v>
+        <v>55055</v>
       </c>
       <c r="G95" t="n">
-        <v>7.712999999999998</v>
+        <v>7.713333333333332</v>
       </c>
       <c r="H95" t="n">
+        <v>0</v>
+      </c>
+      <c r="I95" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2855,21 +3142,24 @@
         <v>7.82</v>
       </c>
       <c r="C96" t="n">
-        <v>7.91</v>
+        <v>7.82</v>
       </c>
       <c r="D96" t="n">
-        <v>7.91</v>
+        <v>7.82</v>
       </c>
       <c r="E96" t="n">
         <v>7.82</v>
       </c>
       <c r="F96" t="n">
-        <v>500</v>
+        <v>50</v>
       </c>
       <c r="G96" t="n">
-        <v>7.714166666666666</v>
+        <v>7.712999999999998</v>
       </c>
       <c r="H96" t="n">
+        <v>0</v>
+      </c>
+      <c r="I96" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2878,7 +3168,7 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>7.91</v>
+        <v>7.82</v>
       </c>
       <c r="C97" t="n">
         <v>7.91</v>
@@ -2887,15 +3177,18 @@
         <v>7.91</v>
       </c>
       <c r="E97" t="n">
-        <v>7.91</v>
+        <v>7.82</v>
       </c>
       <c r="F97" t="n">
-        <v>8457.0733</v>
+        <v>500</v>
       </c>
       <c r="G97" t="n">
-        <v>7.715333333333334</v>
+        <v>7.714166666666666</v>
       </c>
       <c r="H97" t="n">
+        <v>0</v>
+      </c>
+      <c r="I97" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2916,12 +3209,15 @@
         <v>7.91</v>
       </c>
       <c r="F98" t="n">
-        <v>14461.5929</v>
+        <v>8457.0733</v>
       </c>
       <c r="G98" t="n">
-        <v>7.718666666666667</v>
+        <v>7.715333333333334</v>
       </c>
       <c r="H98" t="n">
+        <v>0</v>
+      </c>
+      <c r="I98" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2942,12 +3238,15 @@
         <v>7.91</v>
       </c>
       <c r="F99" t="n">
-        <v>7768.1415</v>
+        <v>14461.5929</v>
       </c>
       <c r="G99" t="n">
-        <v>7.721833333333334</v>
+        <v>7.718666666666667</v>
       </c>
       <c r="H99" t="n">
+        <v>0</v>
+      </c>
+      <c r="I99" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2956,24 +3255,27 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>7.9</v>
+        <v>7.91</v>
       </c>
       <c r="C100" t="n">
-        <v>7.9</v>
+        <v>7.91</v>
       </c>
       <c r="D100" t="n">
-        <v>7.9</v>
+        <v>7.91</v>
       </c>
       <c r="E100" t="n">
-        <v>7.9</v>
+        <v>7.91</v>
       </c>
       <c r="F100" t="n">
-        <v>3485.7025</v>
+        <v>7768.1415</v>
       </c>
       <c r="G100" t="n">
-        <v>7.725000000000001</v>
+        <v>7.721833333333334</v>
       </c>
       <c r="H100" t="n">
+        <v>0</v>
+      </c>
+      <c r="I100" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2982,24 +3284,27 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>7.84</v>
+        <v>7.9</v>
       </c>
       <c r="C101" t="n">
-        <v>7.84</v>
+        <v>7.9</v>
       </c>
       <c r="D101" t="n">
-        <v>7.84</v>
+        <v>7.9</v>
       </c>
       <c r="E101" t="n">
-        <v>7.84</v>
+        <v>7.9</v>
       </c>
       <c r="F101" t="n">
-        <v>55000</v>
+        <v>3485.7025</v>
       </c>
       <c r="G101" t="n">
-        <v>7.727500000000001</v>
+        <v>7.725000000000001</v>
       </c>
       <c r="H101" t="n">
+        <v>0</v>
+      </c>
+      <c r="I101" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3008,24 +3313,27 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>7.89</v>
+        <v>7.84</v>
       </c>
       <c r="C102" t="n">
-        <v>7.9</v>
+        <v>7.84</v>
       </c>
       <c r="D102" t="n">
-        <v>7.9</v>
+        <v>7.84</v>
       </c>
       <c r="E102" t="n">
-        <v>7.89</v>
+        <v>7.84</v>
       </c>
       <c r="F102" t="n">
-        <v>58597.7977</v>
+        <v>55000</v>
       </c>
       <c r="G102" t="n">
-        <v>7.730833333333334</v>
+        <v>7.727500000000001</v>
       </c>
       <c r="H102" t="n">
+        <v>0</v>
+      </c>
+      <c r="I102" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3034,7 +3342,7 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>7.9</v>
+        <v>7.89</v>
       </c>
       <c r="C103" t="n">
         <v>7.9</v>
@@ -3043,15 +3351,18 @@
         <v>7.9</v>
       </c>
       <c r="E103" t="n">
-        <v>7.9</v>
+        <v>7.89</v>
       </c>
       <c r="F103" t="n">
-        <v>18213.4562</v>
+        <v>58597.7977</v>
       </c>
       <c r="G103" t="n">
-        <v>7.734333333333334</v>
+        <v>7.730833333333334</v>
       </c>
       <c r="H103" t="n">
+        <v>0</v>
+      </c>
+      <c r="I103" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3072,12 +3383,15 @@
         <v>7.9</v>
       </c>
       <c r="F104" t="n">
-        <v>182943.6007</v>
+        <v>18213.4562</v>
       </c>
       <c r="G104" t="n">
-        <v>7.738666666666666</v>
+        <v>7.734333333333334</v>
       </c>
       <c r="H104" t="n">
+        <v>0</v>
+      </c>
+      <c r="I104" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3086,24 +3400,27 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>7.91</v>
+        <v>7.9</v>
       </c>
       <c r="C105" t="n">
-        <v>7.91</v>
+        <v>7.9</v>
       </c>
       <c r="D105" t="n">
-        <v>7.91</v>
+        <v>7.9</v>
       </c>
       <c r="E105" t="n">
-        <v>7.91</v>
+        <v>7.9</v>
       </c>
       <c r="F105" t="n">
-        <v>1784.8214</v>
+        <v>182943.6007</v>
       </c>
       <c r="G105" t="n">
-        <v>7.743</v>
+        <v>7.738666666666666</v>
       </c>
       <c r="H105" t="n">
+        <v>0</v>
+      </c>
+      <c r="I105" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3124,12 +3441,15 @@
         <v>7.91</v>
       </c>
       <c r="F106" t="n">
-        <v>40782.736</v>
+        <v>1784.8214</v>
       </c>
       <c r="G106" t="n">
-        <v>7.747500000000001</v>
+        <v>7.743</v>
       </c>
       <c r="H106" t="n">
+        <v>0</v>
+      </c>
+      <c r="I106" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3141,21 +3461,24 @@
         <v>7.91</v>
       </c>
       <c r="C107" t="n">
-        <v>7.92</v>
+        <v>7.91</v>
       </c>
       <c r="D107" t="n">
-        <v>7.92</v>
+        <v>7.91</v>
       </c>
       <c r="E107" t="n">
         <v>7.91</v>
       </c>
       <c r="F107" t="n">
-        <v>558208.3501</v>
+        <v>40782.736</v>
       </c>
       <c r="G107" t="n">
-        <v>7.752000000000002</v>
+        <v>7.747500000000001</v>
       </c>
       <c r="H107" t="n">
+        <v>0</v>
+      </c>
+      <c r="I107" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3164,24 +3487,27 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
+        <v>7.91</v>
+      </c>
+      <c r="C108" t="n">
         <v>7.92</v>
       </c>
-      <c r="C108" t="n">
-        <v>8</v>
-      </c>
       <c r="D108" t="n">
-        <v>8</v>
+        <v>7.92</v>
       </c>
       <c r="E108" t="n">
-        <v>7.92</v>
+        <v>7.91</v>
       </c>
       <c r="F108" t="n">
-        <v>53285.4074</v>
+        <v>558208.3501</v>
       </c>
       <c r="G108" t="n">
-        <v>7.757833333333336</v>
+        <v>7.752000000000002</v>
       </c>
       <c r="H108" t="n">
+        <v>0</v>
+      </c>
+      <c r="I108" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3190,24 +3516,27 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
+        <v>7.92</v>
+      </c>
+      <c r="C109" t="n">
         <v>8</v>
       </c>
-      <c r="C109" t="n">
-        <v>8.1</v>
-      </c>
       <c r="D109" t="n">
-        <v>8.1</v>
+        <v>8</v>
       </c>
       <c r="E109" t="n">
-        <v>8</v>
+        <v>7.92</v>
       </c>
       <c r="F109" t="n">
-        <v>48668.65</v>
+        <v>53285.4074</v>
       </c>
       <c r="G109" t="n">
-        <v>7.765000000000002</v>
+        <v>7.757833333333336</v>
       </c>
       <c r="H109" t="n">
+        <v>0</v>
+      </c>
+      <c r="I109" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3216,24 +3545,27 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>8.06</v>
+        <v>8</v>
       </c>
       <c r="C110" t="n">
-        <v>8.06</v>
+        <v>8.1</v>
       </c>
       <c r="D110" t="n">
-        <v>8.06</v>
+        <v>8.1</v>
       </c>
       <c r="E110" t="n">
-        <v>8.06</v>
+        <v>8</v>
       </c>
       <c r="F110" t="n">
-        <v>7457.813</v>
+        <v>48668.65</v>
       </c>
       <c r="G110" t="n">
-        <v>7.771000000000003</v>
+        <v>7.765000000000002</v>
       </c>
       <c r="H110" t="n">
+        <v>0</v>
+      </c>
+      <c r="I110" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3242,24 +3574,27 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>8.08</v>
+        <v>8.06</v>
       </c>
       <c r="C111" t="n">
-        <v>8.1</v>
+        <v>8.06</v>
       </c>
       <c r="D111" t="n">
-        <v>8.1</v>
+        <v>8.06</v>
       </c>
       <c r="E111" t="n">
-        <v>8.08</v>
+        <v>8.06</v>
       </c>
       <c r="F111" t="n">
-        <v>370748.7468</v>
+        <v>7457.813</v>
       </c>
       <c r="G111" t="n">
-        <v>7.778333333333336</v>
+        <v>7.771000000000003</v>
       </c>
       <c r="H111" t="n">
+        <v>0</v>
+      </c>
+      <c r="I111" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3268,7 +3603,7 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>8.1</v>
+        <v>8.08</v>
       </c>
       <c r="C112" t="n">
         <v>8.1</v>
@@ -3277,15 +3612,18 @@
         <v>8.1</v>
       </c>
       <c r="E112" t="n">
-        <v>8.1</v>
+        <v>8.08</v>
       </c>
       <c r="F112" t="n">
-        <v>64303.4505</v>
+        <v>370748.7468</v>
       </c>
       <c r="G112" t="n">
-        <v>7.784500000000003</v>
+        <v>7.778333333333336</v>
       </c>
       <c r="H112" t="n">
+        <v>0</v>
+      </c>
+      <c r="I112" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3294,24 +3632,27 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>8.130000000000001</v>
+        <v>8.1</v>
       </c>
       <c r="C113" t="n">
-        <v>8.130000000000001</v>
+        <v>8.1</v>
       </c>
       <c r="D113" t="n">
-        <v>8.130000000000001</v>
+        <v>8.1</v>
       </c>
       <c r="E113" t="n">
-        <v>8.130000000000001</v>
+        <v>8.1</v>
       </c>
       <c r="F113" t="n">
-        <v>125.3241</v>
+        <v>64303.4505</v>
       </c>
       <c r="G113" t="n">
-        <v>7.791166666666669</v>
+        <v>7.784500000000003</v>
       </c>
       <c r="H113" t="n">
+        <v>0</v>
+      </c>
+      <c r="I113" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3320,24 +3661,27 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>8.07</v>
+        <v>8.130000000000001</v>
       </c>
       <c r="C114" t="n">
-        <v>8.06</v>
+        <v>8.130000000000001</v>
       </c>
       <c r="D114" t="n">
-        <v>8.07</v>
+        <v>8.130000000000001</v>
       </c>
       <c r="E114" t="n">
-        <v>8.06</v>
+        <v>8.130000000000001</v>
       </c>
       <c r="F114" t="n">
-        <v>57103.3402</v>
+        <v>125.3241</v>
       </c>
       <c r="G114" t="n">
-        <v>7.797166666666669</v>
+        <v>7.791166666666669</v>
       </c>
       <c r="H114" t="n">
+        <v>0</v>
+      </c>
+      <c r="I114" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3346,24 +3690,27 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
+        <v>8.07</v>
+      </c>
+      <c r="C115" t="n">
         <v>8.06</v>
       </c>
-      <c r="C115" t="n">
-        <v>8.109999999999999</v>
-      </c>
       <c r="D115" t="n">
-        <v>8.109999999999999</v>
+        <v>8.07</v>
       </c>
       <c r="E115" t="n">
-        <v>7.93</v>
+        <v>8.06</v>
       </c>
       <c r="F115" t="n">
-        <v>11120.8134</v>
+        <v>57103.3402</v>
       </c>
       <c r="G115" t="n">
-        <v>7.803833333333336</v>
+        <v>7.797166666666669</v>
       </c>
       <c r="H115" t="n">
+        <v>0</v>
+      </c>
+      <c r="I115" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3372,24 +3719,27 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>8.039999999999999</v>
+        <v>8.06</v>
       </c>
       <c r="C116" t="n">
-        <v>8.1</v>
+        <v>8.109999999999999</v>
       </c>
       <c r="D116" t="n">
-        <v>8.1</v>
+        <v>8.109999999999999</v>
       </c>
       <c r="E116" t="n">
-        <v>8.039999999999999</v>
+        <v>7.93</v>
       </c>
       <c r="F116" t="n">
-        <v>183287.6665</v>
+        <v>11120.8134</v>
       </c>
       <c r="G116" t="n">
-        <v>7.810333333333337</v>
+        <v>7.803833333333336</v>
       </c>
       <c r="H116" t="n">
+        <v>0</v>
+      </c>
+      <c r="I116" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3398,24 +3748,27 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>8.109999999999999</v>
+        <v>8.039999999999999</v>
       </c>
       <c r="C117" t="n">
-        <v>8.109999999999999</v>
+        <v>8.1</v>
       </c>
       <c r="D117" t="n">
-        <v>8.109999999999999</v>
+        <v>8.1</v>
       </c>
       <c r="E117" t="n">
-        <v>8.109999999999999</v>
+        <v>8.039999999999999</v>
       </c>
       <c r="F117" t="n">
-        <v>5255.324</v>
+        <v>183287.6665</v>
       </c>
       <c r="G117" t="n">
-        <v>7.816166666666671</v>
+        <v>7.810333333333337</v>
       </c>
       <c r="H117" t="n">
+        <v>0</v>
+      </c>
+      <c r="I117" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3424,24 +3777,27 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>8.140000000000001</v>
+        <v>8.109999999999999</v>
       </c>
       <c r="C118" t="n">
-        <v>8.140000000000001</v>
+        <v>8.109999999999999</v>
       </c>
       <c r="D118" t="n">
-        <v>8.140000000000001</v>
+        <v>8.109999999999999</v>
       </c>
       <c r="E118" t="n">
-        <v>8.140000000000001</v>
+        <v>8.109999999999999</v>
       </c>
       <c r="F118" t="n">
-        <v>1000</v>
+        <v>5255.324</v>
       </c>
       <c r="G118" t="n">
-        <v>7.822500000000004</v>
+        <v>7.816166666666671</v>
       </c>
       <c r="H118" t="n">
+        <v>0</v>
+      </c>
+      <c r="I118" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3450,24 +3806,27 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>8.01</v>
+        <v>8.140000000000001</v>
       </c>
       <c r="C119" t="n">
-        <v>8</v>
+        <v>8.140000000000001</v>
       </c>
       <c r="D119" t="n">
-        <v>8.01</v>
+        <v>8.140000000000001</v>
       </c>
       <c r="E119" t="n">
-        <v>8</v>
+        <v>8.140000000000001</v>
       </c>
       <c r="F119" t="n">
-        <v>61409.9435</v>
+        <v>1000</v>
       </c>
       <c r="G119" t="n">
-        <v>7.826500000000005</v>
+        <v>7.822500000000004</v>
       </c>
       <c r="H119" t="n">
+        <v>0</v>
+      </c>
+      <c r="I119" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3476,24 +3835,27 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>7.83</v>
+        <v>8.01</v>
       </c>
       <c r="C120" t="n">
-        <v>7.77</v>
+        <v>8</v>
       </c>
       <c r="D120" t="n">
-        <v>7.83</v>
+        <v>8.01</v>
       </c>
       <c r="E120" t="n">
-        <v>7.77</v>
+        <v>8</v>
       </c>
       <c r="F120" t="n">
-        <v>7000</v>
+        <v>61409.9435</v>
       </c>
       <c r="G120" t="n">
-        <v>7.827000000000004</v>
+        <v>7.826500000000005</v>
       </c>
       <c r="H120" t="n">
+        <v>0</v>
+      </c>
+      <c r="I120" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3502,24 +3864,27 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>7.95</v>
+        <v>7.83</v>
       </c>
       <c r="C121" t="n">
-        <v>8</v>
+        <v>7.77</v>
       </c>
       <c r="D121" t="n">
-        <v>8</v>
+        <v>7.83</v>
       </c>
       <c r="E121" t="n">
-        <v>7.95</v>
+        <v>7.77</v>
       </c>
       <c r="F121" t="n">
-        <v>3000</v>
+        <v>7000</v>
       </c>
       <c r="G121" t="n">
-        <v>7.831500000000004</v>
+        <v>7.827000000000004</v>
       </c>
       <c r="H121" t="n">
+        <v>0</v>
+      </c>
+      <c r="I121" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3528,24 +3893,27 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>8.029999999999999</v>
+        <v>7.95</v>
       </c>
       <c r="C122" t="n">
-        <v>8.1</v>
+        <v>8</v>
       </c>
       <c r="D122" t="n">
-        <v>8.1</v>
+        <v>8</v>
       </c>
       <c r="E122" t="n">
-        <v>8.029999999999999</v>
+        <v>7.95</v>
       </c>
       <c r="F122" t="n">
-        <v>307910.2543</v>
+        <v>3000</v>
       </c>
       <c r="G122" t="n">
-        <v>7.838000000000005</v>
+        <v>7.831500000000004</v>
       </c>
       <c r="H122" t="n">
+        <v>0</v>
+      </c>
+      <c r="I122" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3554,24 +3922,27 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>8</v>
+        <v>8.029999999999999</v>
       </c>
       <c r="C123" t="n">
-        <v>8</v>
+        <v>8.1</v>
       </c>
       <c r="D123" t="n">
-        <v>8</v>
+        <v>8.1</v>
       </c>
       <c r="E123" t="n">
-        <v>8</v>
+        <v>8.029999999999999</v>
       </c>
       <c r="F123" t="n">
-        <v>6536.052</v>
+        <v>307910.2543</v>
       </c>
       <c r="G123" t="n">
-        <v>7.844000000000005</v>
+        <v>7.838000000000005</v>
       </c>
       <c r="H123" t="n">
+        <v>0</v>
+      </c>
+      <c r="I123" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3580,24 +3951,27 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>7.99</v>
+        <v>8</v>
       </c>
       <c r="C124" t="n">
-        <v>7.99</v>
+        <v>8</v>
       </c>
       <c r="D124" t="n">
-        <v>7.99</v>
+        <v>8</v>
       </c>
       <c r="E124" t="n">
-        <v>7.99</v>
+        <v>8</v>
       </c>
       <c r="F124" t="n">
-        <v>2000</v>
+        <v>6536.052</v>
       </c>
       <c r="G124" t="n">
-        <v>7.848666666666672</v>
+        <v>7.844000000000005</v>
       </c>
       <c r="H124" t="n">
+        <v>0</v>
+      </c>
+      <c r="I124" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3618,12 +3992,15 @@
         <v>7.99</v>
       </c>
       <c r="F125" t="n">
-        <v>1799.1358</v>
+        <v>2000</v>
       </c>
       <c r="G125" t="n">
-        <v>7.853333333333339</v>
+        <v>7.848666666666672</v>
       </c>
       <c r="H125" t="n">
+        <v>0</v>
+      </c>
+      <c r="I125" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3632,24 +4009,27 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>8</v>
+        <v>7.99</v>
       </c>
       <c r="C126" t="n">
-        <v>8</v>
+        <v>7.99</v>
       </c>
       <c r="D126" t="n">
-        <v>8</v>
+        <v>7.99</v>
       </c>
       <c r="E126" t="n">
-        <v>8</v>
+        <v>7.99</v>
       </c>
       <c r="F126" t="n">
-        <v>53201.4039</v>
+        <v>1799.1358</v>
       </c>
       <c r="G126" t="n">
-        <v>7.858166666666673</v>
+        <v>7.853333333333339</v>
       </c>
       <c r="H126" t="n">
+        <v>0</v>
+      </c>
+      <c r="I126" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3658,24 +4038,27 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>7.99</v>
+        <v>8</v>
       </c>
       <c r="C127" t="n">
-        <v>7.99</v>
+        <v>8</v>
       </c>
       <c r="D127" t="n">
-        <v>7.99</v>
+        <v>8</v>
       </c>
       <c r="E127" t="n">
-        <v>7.99</v>
+        <v>8</v>
       </c>
       <c r="F127" t="n">
-        <v>2736</v>
+        <v>53201.4039</v>
       </c>
       <c r="G127" t="n">
-        <v>7.863500000000005</v>
+        <v>7.858166666666673</v>
       </c>
       <c r="H127" t="n">
+        <v>0</v>
+      </c>
+      <c r="I127" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3687,21 +4070,24 @@
         <v>7.99</v>
       </c>
       <c r="C128" t="n">
-        <v>8</v>
+        <v>7.99</v>
       </c>
       <c r="D128" t="n">
-        <v>8</v>
+        <v>7.99</v>
       </c>
       <c r="E128" t="n">
         <v>7.99</v>
       </c>
       <c r="F128" t="n">
-        <v>59375.0001</v>
+        <v>2736</v>
       </c>
       <c r="G128" t="n">
-        <v>7.868833333333339</v>
+        <v>7.863500000000005</v>
       </c>
       <c r="H128" t="n">
+        <v>0</v>
+      </c>
+      <c r="I128" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3710,7 +4096,7 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>8</v>
+        <v>7.99</v>
       </c>
       <c r="C129" t="n">
         <v>8</v>
@@ -3719,15 +4105,18 @@
         <v>8</v>
       </c>
       <c r="E129" t="n">
-        <v>8</v>
+        <v>7.99</v>
       </c>
       <c r="F129" t="n">
-        <v>108167.465</v>
+        <v>59375.0001</v>
       </c>
       <c r="G129" t="n">
-        <v>7.874333333333339</v>
+        <v>7.868833333333339</v>
       </c>
       <c r="H129" t="n">
+        <v>0</v>
+      </c>
+      <c r="I129" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3736,24 +4125,27 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>8.07</v>
+        <v>8</v>
       </c>
       <c r="C130" t="n">
-        <v>8.07</v>
+        <v>8</v>
       </c>
       <c r="D130" t="n">
-        <v>8.07</v>
+        <v>8</v>
       </c>
       <c r="E130" t="n">
-        <v>8.07</v>
+        <v>8</v>
       </c>
       <c r="F130" t="n">
-        <v>2000</v>
+        <v>108167.465</v>
       </c>
       <c r="G130" t="n">
-        <v>7.881166666666672</v>
+        <v>7.874333333333339</v>
       </c>
       <c r="H130" t="n">
+        <v>0</v>
+      </c>
+      <c r="I130" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3762,24 +4154,27 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>8.140000000000001</v>
+        <v>8.07</v>
       </c>
       <c r="C131" t="n">
-        <v>8.140000000000001</v>
+        <v>8.07</v>
       </c>
       <c r="D131" t="n">
-        <v>8.140000000000001</v>
+        <v>8.07</v>
       </c>
       <c r="E131" t="n">
-        <v>8.140000000000001</v>
+        <v>8.07</v>
       </c>
       <c r="F131" t="n">
-        <v>14962.5</v>
+        <v>2000</v>
       </c>
       <c r="G131" t="n">
-        <v>7.889333333333338</v>
+        <v>7.881166666666672</v>
       </c>
       <c r="H131" t="n">
+        <v>0</v>
+      </c>
+      <c r="I131" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3788,24 +4183,27 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>8.15</v>
+        <v>8.140000000000001</v>
       </c>
       <c r="C132" t="n">
-        <v>8.15</v>
+        <v>8.140000000000001</v>
       </c>
       <c r="D132" t="n">
-        <v>8.15</v>
+        <v>8.140000000000001</v>
       </c>
       <c r="E132" t="n">
-        <v>8.15</v>
+        <v>8.140000000000001</v>
       </c>
       <c r="F132" t="n">
-        <v>22925.6513</v>
+        <v>14962.5</v>
       </c>
       <c r="G132" t="n">
-        <v>7.897833333333338</v>
+        <v>7.889333333333338</v>
       </c>
       <c r="H132" t="n">
+        <v>0</v>
+      </c>
+      <c r="I132" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3814,24 +4212,27 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>8.17</v>
+        <v>8.15</v>
       </c>
       <c r="C133" t="n">
-        <v>8.18</v>
+        <v>8.15</v>
       </c>
       <c r="D133" t="n">
-        <v>8.18</v>
+        <v>8.15</v>
       </c>
       <c r="E133" t="n">
-        <v>8.17</v>
+        <v>8.15</v>
       </c>
       <c r="F133" t="n">
-        <v>37281.7876</v>
+        <v>22925.6513</v>
       </c>
       <c r="G133" t="n">
-        <v>7.907666666666672</v>
+        <v>7.897833333333338</v>
       </c>
       <c r="H133" t="n">
+        <v>0</v>
+      </c>
+      <c r="I133" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3840,24 +4241,27 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
+        <v>8.17</v>
+      </c>
+      <c r="C134" t="n">
         <v>8.18</v>
       </c>
-      <c r="C134" t="n">
-        <v>8.199999999999999</v>
-      </c>
       <c r="D134" t="n">
-        <v>8.199999999999999</v>
+        <v>8.18</v>
       </c>
       <c r="E134" t="n">
-        <v>8.18</v>
+        <v>8.17</v>
       </c>
       <c r="F134" t="n">
-        <v>488150</v>
+        <v>37281.7876</v>
       </c>
       <c r="G134" t="n">
-        <v>7.915833333333339</v>
+        <v>7.907666666666672</v>
       </c>
       <c r="H134" t="n">
+        <v>0</v>
+      </c>
+      <c r="I134" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3866,24 +4270,27 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>8.140000000000001</v>
+        <v>8.18</v>
       </c>
       <c r="C135" t="n">
-        <v>8.279999999999999</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="D135" t="n">
-        <v>8.279999999999999</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="E135" t="n">
-        <v>8.140000000000001</v>
+        <v>8.18</v>
       </c>
       <c r="F135" t="n">
-        <v>458879.2328</v>
+        <v>488150</v>
       </c>
       <c r="G135" t="n">
-        <v>7.925833333333339</v>
+        <v>7.915833333333339</v>
       </c>
       <c r="H135" t="n">
+        <v>0</v>
+      </c>
+      <c r="I135" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3892,24 +4299,27 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
+        <v>8.140000000000001</v>
+      </c>
+      <c r="C136" t="n">
         <v>8.279999999999999</v>
       </c>
-      <c r="C136" t="n">
-        <v>8.31</v>
-      </c>
       <c r="D136" t="n">
-        <v>8.31</v>
+        <v>8.279999999999999</v>
       </c>
       <c r="E136" t="n">
-        <v>8.279999999999999</v>
+        <v>8.140000000000001</v>
       </c>
       <c r="F136" t="n">
-        <v>9520</v>
+        <v>458879.2328</v>
       </c>
       <c r="G136" t="n">
-        <v>7.936000000000005</v>
+        <v>7.925833333333339</v>
       </c>
       <c r="H136" t="n">
+        <v>0</v>
+      </c>
+      <c r="I136" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3918,24 +4328,27 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
+        <v>8.279999999999999</v>
+      </c>
+      <c r="C137" t="n">
         <v>8.31</v>
       </c>
-      <c r="C137" t="n">
-        <v>8.43</v>
-      </c>
       <c r="D137" t="n">
-        <v>8.43</v>
+        <v>8.31</v>
       </c>
       <c r="E137" t="n">
-        <v>8.31</v>
+        <v>8.279999999999999</v>
       </c>
       <c r="F137" t="n">
-        <v>3051.7598</v>
+        <v>9520</v>
       </c>
       <c r="G137" t="n">
-        <v>7.947833333333338</v>
+        <v>7.936000000000005</v>
       </c>
       <c r="H137" t="n">
+        <v>0</v>
+      </c>
+      <c r="I137" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3944,24 +4357,27 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>8.4</v>
+        <v>8.31</v>
       </c>
       <c r="C138" t="n">
-        <v>8.4</v>
+        <v>8.43</v>
       </c>
       <c r="D138" t="n">
-        <v>8.4</v>
+        <v>8.43</v>
       </c>
       <c r="E138" t="n">
-        <v>8.4</v>
+        <v>8.31</v>
       </c>
       <c r="F138" t="n">
-        <v>99.2402</v>
+        <v>3051.7598</v>
       </c>
       <c r="G138" t="n">
-        <v>7.959166666666671</v>
+        <v>7.947833333333338</v>
       </c>
       <c r="H138" t="n">
+        <v>0</v>
+      </c>
+      <c r="I138" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3982,13 +4398,16 @@
         <v>8.4</v>
       </c>
       <c r="F139" t="n">
-        <v>16075.7142</v>
+        <v>99.2402</v>
       </c>
       <c r="G139" t="n">
-        <v>7.971166666666671</v>
+        <v>7.959166666666671</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
+      </c>
+      <c r="I139" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="140">
@@ -4008,13 +4427,16 @@
         <v>8.4</v>
       </c>
       <c r="F140" t="n">
-        <v>4405.2178</v>
+        <v>16075.7142</v>
       </c>
       <c r="G140" t="n">
-        <v>7.982500000000003</v>
+        <v>7.971166666666671</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
+      </c>
+      <c r="I140" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="141">
@@ -4022,24 +4444,27 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>8.42</v>
+        <v>8.4</v>
       </c>
       <c r="C141" t="n">
-        <v>8.42</v>
+        <v>8.4</v>
       </c>
       <c r="D141" t="n">
-        <v>8.42</v>
+        <v>8.4</v>
       </c>
       <c r="E141" t="n">
-        <v>8.42</v>
+        <v>8.4</v>
       </c>
       <c r="F141" t="n">
-        <v>11</v>
+        <v>4405.2178</v>
       </c>
       <c r="G141" t="n">
-        <v>7.994500000000003</v>
+        <v>7.982500000000003</v>
       </c>
       <c r="H141" t="n">
+        <v>0</v>
+      </c>
+      <c r="I141" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4048,24 +4473,27 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>8.380000000000001</v>
+        <v>8.42</v>
       </c>
       <c r="C142" t="n">
-        <v>8.380000000000001</v>
+        <v>8.42</v>
       </c>
       <c r="D142" t="n">
-        <v>8.380000000000001</v>
+        <v>8.42</v>
       </c>
       <c r="E142" t="n">
-        <v>8.380000000000001</v>
+        <v>8.42</v>
       </c>
       <c r="F142" t="n">
-        <v>1111</v>
+        <v>11</v>
       </c>
       <c r="G142" t="n">
-        <v>8.005833333333337</v>
+        <v>7.994500000000003</v>
       </c>
       <c r="H142" t="n">
+        <v>0</v>
+      </c>
+      <c r="I142" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4074,24 +4502,27 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>8.359999999999999</v>
+        <v>8.380000000000001</v>
       </c>
       <c r="C143" t="n">
-        <v>8.4</v>
+        <v>8.380000000000001</v>
       </c>
       <c r="D143" t="n">
-        <v>8.4</v>
+        <v>8.380000000000001</v>
       </c>
       <c r="E143" t="n">
-        <v>8.359999999999999</v>
+        <v>8.380000000000001</v>
       </c>
       <c r="F143" t="n">
-        <v>25091.4292</v>
+        <v>1111</v>
       </c>
       <c r="G143" t="n">
-        <v>8.01716666666667</v>
+        <v>8.005833333333337</v>
       </c>
       <c r="H143" t="n">
+        <v>0</v>
+      </c>
+      <c r="I143" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4103,21 +4534,24 @@
         <v>8.359999999999999</v>
       </c>
       <c r="C144" t="n">
-        <v>8.35</v>
+        <v>8.4</v>
       </c>
       <c r="D144" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="E144" t="n">
         <v>8.359999999999999</v>
       </c>
-      <c r="E144" t="n">
-        <v>8.35</v>
-      </c>
       <c r="F144" t="n">
-        <v>7128.9592</v>
+        <v>25091.4292</v>
       </c>
       <c r="G144" t="n">
-        <v>8.027500000000002</v>
+        <v>8.01716666666667</v>
       </c>
       <c r="H144" t="n">
+        <v>0</v>
+      </c>
+      <c r="I144" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4126,24 +4560,27 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>8.42</v>
+        <v>8.359999999999999</v>
       </c>
       <c r="C145" t="n">
-        <v>8.42</v>
+        <v>8.35</v>
       </c>
       <c r="D145" t="n">
-        <v>8.42</v>
+        <v>8.359999999999999</v>
       </c>
       <c r="E145" t="n">
-        <v>8.42</v>
+        <v>8.35</v>
       </c>
       <c r="F145" t="n">
-        <v>11</v>
+        <v>7128.9592</v>
       </c>
       <c r="G145" t="n">
-        <v>8.039666666666669</v>
+        <v>8.027500000000002</v>
       </c>
       <c r="H145" t="n">
+        <v>0</v>
+      </c>
+      <c r="I145" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4152,24 +4589,27 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>8.390000000000001</v>
+        <v>8.42</v>
       </c>
       <c r="C146" t="n">
-        <v>8.390000000000001</v>
+        <v>8.42</v>
       </c>
       <c r="D146" t="n">
-        <v>8.390000000000001</v>
+        <v>8.42</v>
       </c>
       <c r="E146" t="n">
-        <v>8.390000000000001</v>
+        <v>8.42</v>
       </c>
       <c r="F146" t="n">
-        <v>6975.3277</v>
+        <v>11</v>
       </c>
       <c r="G146" t="n">
-        <v>8.052833333333336</v>
+        <v>8.039666666666669</v>
       </c>
       <c r="H146" t="n">
+        <v>0</v>
+      </c>
+      <c r="I146" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4178,24 +4618,27 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>8.42</v>
+        <v>8.390000000000001</v>
       </c>
       <c r="C147" t="n">
-        <v>8.42</v>
+        <v>8.390000000000001</v>
       </c>
       <c r="D147" t="n">
-        <v>8.42</v>
+        <v>8.390000000000001</v>
       </c>
       <c r="E147" t="n">
-        <v>8.42</v>
+        <v>8.390000000000001</v>
       </c>
       <c r="F147" t="n">
-        <v>11</v>
+        <v>6975.3277</v>
       </c>
       <c r="G147" t="n">
-        <v>8.066500000000001</v>
+        <v>8.052833333333336</v>
       </c>
       <c r="H147" t="n">
+        <v>0</v>
+      </c>
+      <c r="I147" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4204,24 +4647,27 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>8.35</v>
+        <v>8.42</v>
       </c>
       <c r="C148" t="n">
-        <v>8.35</v>
+        <v>8.42</v>
       </c>
       <c r="D148" t="n">
-        <v>8.35</v>
+        <v>8.42</v>
       </c>
       <c r="E148" t="n">
-        <v>8.300000000000001</v>
+        <v>8.42</v>
       </c>
       <c r="F148" t="n">
-        <v>601</v>
+        <v>11</v>
       </c>
       <c r="G148" t="n">
-        <v>8.076833333333335</v>
+        <v>8.066500000000001</v>
       </c>
       <c r="H148" t="n">
+        <v>0</v>
+      </c>
+      <c r="I148" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4230,24 +4676,27 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>8.34</v>
+        <v>8.35</v>
       </c>
       <c r="C149" t="n">
-        <v>8.34</v>
+        <v>8.35</v>
       </c>
       <c r="D149" t="n">
-        <v>8.34</v>
+        <v>8.35</v>
       </c>
       <c r="E149" t="n">
-        <v>8.34</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="F149" t="n">
-        <v>11</v>
+        <v>601</v>
       </c>
       <c r="G149" t="n">
-        <v>8.085500000000001</v>
+        <v>8.076833333333335</v>
       </c>
       <c r="H149" t="n">
+        <v>0</v>
+      </c>
+      <c r="I149" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4268,12 +4717,15 @@
         <v>8.34</v>
       </c>
       <c r="F150" t="n">
-        <v>56500.1199</v>
+        <v>11</v>
       </c>
       <c r="G150" t="n">
-        <v>8.094333333333335</v>
+        <v>8.085500000000001</v>
       </c>
       <c r="H150" t="n">
+        <v>0</v>
+      </c>
+      <c r="I150" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4282,24 +4734,27 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>8.35</v>
+        <v>8.34</v>
       </c>
       <c r="C151" t="n">
-        <v>8.35</v>
+        <v>8.34</v>
       </c>
       <c r="D151" t="n">
-        <v>8.35</v>
+        <v>8.34</v>
       </c>
       <c r="E151" t="n">
-        <v>8.35</v>
+        <v>8.34</v>
       </c>
       <c r="F151" t="n">
-        <v>11</v>
+        <v>56500.1199</v>
       </c>
       <c r="G151" t="n">
-        <v>8.103500000000002</v>
+        <v>8.094333333333335</v>
       </c>
       <c r="H151" t="n">
+        <v>0</v>
+      </c>
+      <c r="I151" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4320,12 +4775,15 @@
         <v>8.35</v>
       </c>
       <c r="F152" t="n">
-        <v>8811.137699999999</v>
+        <v>11</v>
       </c>
       <c r="G152" t="n">
-        <v>8.112166666666669</v>
+        <v>8.103500000000002</v>
       </c>
       <c r="H152" t="n">
+        <v>0</v>
+      </c>
+      <c r="I152" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4334,24 +4792,27 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>8.25</v>
+        <v>8.35</v>
       </c>
       <c r="C153" t="n">
-        <v>8.23</v>
+        <v>8.35</v>
       </c>
       <c r="D153" t="n">
-        <v>8.25</v>
+        <v>8.35</v>
       </c>
       <c r="E153" t="n">
-        <v>8.23</v>
+        <v>8.35</v>
       </c>
       <c r="F153" t="n">
-        <v>2000</v>
+        <v>8811.137699999999</v>
       </c>
       <c r="G153" t="n">
-        <v>8.118500000000003</v>
+        <v>8.112166666666669</v>
       </c>
       <c r="H153" t="n">
+        <v>0</v>
+      </c>
+      <c r="I153" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4360,24 +4821,27 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>8.23</v>
+        <v>8.25</v>
       </c>
       <c r="C154" t="n">
         <v>8.23</v>
       </c>
       <c r="D154" t="n">
-        <v>8.23</v>
+        <v>8.25</v>
       </c>
       <c r="E154" t="n">
         <v>8.23</v>
       </c>
       <c r="F154" t="n">
-        <v>94.48399999999999</v>
+        <v>2000</v>
       </c>
       <c r="G154" t="n">
-        <v>8.123666666666669</v>
+        <v>8.118500000000003</v>
       </c>
       <c r="H154" t="n">
+        <v>0</v>
+      </c>
+      <c r="I154" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4386,544 +4850,27 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>8.17</v>
+        <v>8.23</v>
       </c>
       <c r="C155" t="n">
-        <v>8.029999999999999</v>
+        <v>8.23</v>
       </c>
       <c r="D155" t="n">
-        <v>8.17</v>
+        <v>8.23</v>
       </c>
       <c r="E155" t="n">
-        <v>8.029999999999999</v>
+        <v>8.23</v>
       </c>
       <c r="F155" t="n">
-        <v>472925.7168</v>
+        <v>94.48399999999999</v>
       </c>
       <c r="G155" t="n">
-        <v>8.127166666666669</v>
+        <v>8.123666666666669</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="156">
-      <c r="A156" s="1" t="n">
-        <v>154</v>
-      </c>
-      <c r="B156" t="n">
-        <v>8.109999999999999</v>
-      </c>
-      <c r="C156" t="n">
-        <v>8.23</v>
-      </c>
-      <c r="D156" t="n">
-        <v>8.23</v>
-      </c>
-      <c r="E156" t="n">
-        <v>8.109999999999999</v>
-      </c>
-      <c r="F156" t="n">
-        <v>27622.588</v>
-      </c>
-      <c r="G156" t="n">
-        <v>8.132500000000002</v>
-      </c>
-      <c r="H156" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="157">
-      <c r="A157" s="1" t="n">
-        <v>155</v>
-      </c>
-      <c r="B157" t="n">
-        <v>8.1</v>
-      </c>
-      <c r="C157" t="n">
-        <v>8.1</v>
-      </c>
-      <c r="D157" t="n">
-        <v>8.1</v>
-      </c>
-      <c r="E157" t="n">
-        <v>8.1</v>
-      </c>
-      <c r="F157" t="n">
-        <v>308</v>
-      </c>
-      <c r="G157" t="n">
-        <v>8.135666666666669</v>
-      </c>
-      <c r="H157" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="158">
-      <c r="A158" s="1" t="n">
-        <v>156</v>
-      </c>
-      <c r="B158" t="n">
-        <v>8.109999999999999</v>
-      </c>
-      <c r="C158" t="n">
-        <v>8.1</v>
-      </c>
-      <c r="D158" t="n">
-        <v>8.109999999999999</v>
-      </c>
-      <c r="E158" t="n">
-        <v>8.1</v>
-      </c>
-      <c r="F158" t="n">
-        <v>9537.7788</v>
-      </c>
-      <c r="G158" t="n">
-        <v>8.138833333333334</v>
-      </c>
-      <c r="H158" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="159">
-      <c r="A159" s="1" t="n">
-        <v>157</v>
-      </c>
-      <c r="B159" t="n">
-        <v>8.220000000000001</v>
-      </c>
-      <c r="C159" t="n">
-        <v>8.220000000000001</v>
-      </c>
-      <c r="D159" t="n">
-        <v>8.220000000000001</v>
-      </c>
-      <c r="E159" t="n">
-        <v>8.220000000000001</v>
-      </c>
-      <c r="F159" t="n">
-        <v>9383.454900000001</v>
-      </c>
-      <c r="G159" t="n">
-        <v>8.144000000000002</v>
-      </c>
-      <c r="H159" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="160">
-      <c r="A160" s="1" t="n">
-        <v>158</v>
-      </c>
-      <c r="B160" t="n">
-        <v>8.109999999999999</v>
-      </c>
-      <c r="C160" t="n">
-        <v>8.109999999999999</v>
-      </c>
-      <c r="D160" t="n">
-        <v>8.109999999999999</v>
-      </c>
-      <c r="E160" t="n">
-        <v>8.109999999999999</v>
-      </c>
-      <c r="F160" t="n">
-        <v>645.4254</v>
-      </c>
-      <c r="G160" t="n">
-        <v>8.147500000000003</v>
-      </c>
-      <c r="H160" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="161">
-      <c r="A161" s="1" t="n">
-        <v>159</v>
-      </c>
-      <c r="B161" t="n">
-        <v>8.07</v>
-      </c>
-      <c r="C161" t="n">
-        <v>7.92</v>
-      </c>
-      <c r="D161" t="n">
-        <v>8.07</v>
-      </c>
-      <c r="E161" t="n">
-        <v>7.92</v>
-      </c>
-      <c r="F161" t="n">
-        <v>16035.5249</v>
-      </c>
-      <c r="G161" t="n">
-        <v>8.148833333333336</v>
-      </c>
-      <c r="H161" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="162">
-      <c r="A162" s="1" t="n">
-        <v>160</v>
-      </c>
-      <c r="B162" t="n">
-        <v>7.97</v>
-      </c>
-      <c r="C162" t="n">
-        <v>7.97</v>
-      </c>
-      <c r="D162" t="n">
-        <v>7.97</v>
-      </c>
-      <c r="E162" t="n">
-        <v>7.97</v>
-      </c>
-      <c r="F162" t="n">
-        <v>2976.9661</v>
-      </c>
-      <c r="G162" t="n">
-        <v>8.150000000000004</v>
-      </c>
-      <c r="H162" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="163">
-      <c r="A163" s="1" t="n">
-        <v>161</v>
-      </c>
-      <c r="B163" t="n">
-        <v>7.97</v>
-      </c>
-      <c r="C163" t="n">
-        <v>7.97</v>
-      </c>
-      <c r="D163" t="n">
-        <v>7.97</v>
-      </c>
-      <c r="E163" t="n">
-        <v>7.97</v>
-      </c>
-      <c r="F163" t="n">
-        <v>64621.0232</v>
-      </c>
-      <c r="G163" t="n">
-        <v>8.151166666666672</v>
-      </c>
-      <c r="H163" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="164">
-      <c r="A164" s="1" t="n">
-        <v>162</v>
-      </c>
-      <c r="B164" t="n">
-        <v>7.98</v>
-      </c>
-      <c r="C164" t="n">
-        <v>7.98</v>
-      </c>
-      <c r="D164" t="n">
-        <v>7.98</v>
-      </c>
-      <c r="E164" t="n">
-        <v>7.98</v>
-      </c>
-      <c r="F164" t="n">
-        <v>7788.0331</v>
-      </c>
-      <c r="G164" t="n">
-        <v>8.152500000000005</v>
-      </c>
-      <c r="H164" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="165">
-      <c r="A165" s="1" t="n">
-        <v>163</v>
-      </c>
-      <c r="B165" t="n">
-        <v>8</v>
-      </c>
-      <c r="C165" t="n">
-        <v>8</v>
-      </c>
-      <c r="D165" t="n">
-        <v>8</v>
-      </c>
-      <c r="E165" t="n">
-        <v>8</v>
-      </c>
-      <c r="F165" t="n">
-        <v>60000</v>
-      </c>
-      <c r="G165" t="n">
-        <v>8.154000000000005</v>
-      </c>
-      <c r="H165" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="166">
-      <c r="A166" s="1" t="n">
-        <v>164</v>
-      </c>
-      <c r="B166" t="n">
-        <v>8.01</v>
-      </c>
-      <c r="C166" t="n">
-        <v>8.01</v>
-      </c>
-      <c r="D166" t="n">
-        <v>8.01</v>
-      </c>
-      <c r="E166" t="n">
-        <v>8.01</v>
-      </c>
-      <c r="F166" t="n">
-        <v>69196.1906</v>
-      </c>
-      <c r="G166" t="n">
-        <v>8.15566666666667</v>
-      </c>
-      <c r="H166" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="167">
-      <c r="A167" s="1" t="n">
-        <v>165</v>
-      </c>
-      <c r="B167" t="n">
-        <v>8.01</v>
-      </c>
-      <c r="C167" t="n">
-        <v>8.01</v>
-      </c>
-      <c r="D167" t="n">
-        <v>8.01</v>
-      </c>
-      <c r="E167" t="n">
-        <v>8.01</v>
-      </c>
-      <c r="F167" t="n">
-        <v>34598.0953</v>
-      </c>
-      <c r="G167" t="n">
-        <v>8.15716666666667</v>
-      </c>
-      <c r="H167" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="168">
-      <c r="A168" s="1" t="n">
-        <v>166</v>
-      </c>
-      <c r="B168" t="n">
-        <v>8.01</v>
-      </c>
-      <c r="C168" t="n">
-        <v>8.01</v>
-      </c>
-      <c r="D168" t="n">
-        <v>8.01</v>
-      </c>
-      <c r="E168" t="n">
-        <v>8.01</v>
-      </c>
-      <c r="F168" t="n">
-        <v>5443.1491</v>
-      </c>
-      <c r="G168" t="n">
-        <v>8.157333333333337</v>
-      </c>
-      <c r="H168" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="169">
-      <c r="A169" s="1" t="n">
-        <v>167</v>
-      </c>
-      <c r="B169" t="n">
-        <v>8.02</v>
-      </c>
-      <c r="C169" t="n">
-        <v>8.02</v>
-      </c>
-      <c r="D169" t="n">
-        <v>8.02</v>
-      </c>
-      <c r="E169" t="n">
-        <v>8.02</v>
-      </c>
-      <c r="F169" t="n">
-        <v>2657.5827</v>
-      </c>
-      <c r="G169" t="n">
-        <v>8.156000000000002</v>
-      </c>
-      <c r="H169" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="170">
-      <c r="A170" s="1" t="n">
-        <v>168</v>
-      </c>
-      <c r="B170" t="n">
-        <v>8.01</v>
-      </c>
-      <c r="C170" t="n">
-        <v>8.01</v>
-      </c>
-      <c r="D170" t="n">
-        <v>8.01</v>
-      </c>
-      <c r="E170" t="n">
-        <v>8.01</v>
-      </c>
-      <c r="F170" t="n">
-        <v>67531.0628</v>
-      </c>
-      <c r="G170" t="n">
-        <v>8.15516666666667</v>
-      </c>
-      <c r="H170" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="171">
-      <c r="A171" s="1" t="n">
-        <v>169</v>
-      </c>
-      <c r="B171" t="n">
-        <v>8.02</v>
-      </c>
-      <c r="C171" t="n">
-        <v>8.02</v>
-      </c>
-      <c r="D171" t="n">
-        <v>8.02</v>
-      </c>
-      <c r="E171" t="n">
-        <v>8.02</v>
-      </c>
-      <c r="F171" t="n">
-        <v>14641.4649</v>
-      </c>
-      <c r="G171" t="n">
-        <v>8.153833333333335</v>
-      </c>
-      <c r="H171" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="172">
-      <c r="A172" s="1" t="n">
-        <v>170</v>
-      </c>
-      <c r="B172" t="n">
-        <v>8.02</v>
-      </c>
-      <c r="C172" t="n">
-        <v>8.02</v>
-      </c>
-      <c r="D172" t="n">
-        <v>8.02</v>
-      </c>
-      <c r="E172" t="n">
-        <v>8.02</v>
-      </c>
-      <c r="F172" t="n">
-        <v>6608.9081</v>
-      </c>
-      <c r="G172" t="n">
-        <v>8.152500000000002</v>
-      </c>
-      <c r="H172" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="173">
-      <c r="A173" s="1" t="n">
-        <v>171</v>
-      </c>
-      <c r="B173" t="n">
-        <v>8.01</v>
-      </c>
-      <c r="C173" t="n">
-        <v>8.01</v>
-      </c>
-      <c r="D173" t="n">
-        <v>8.01</v>
-      </c>
-      <c r="E173" t="n">
-        <v>8.01</v>
-      </c>
-      <c r="F173" t="n">
-        <v>222395.0621</v>
-      </c>
-      <c r="G173" t="n">
-        <v>8.150500000000001</v>
-      </c>
-      <c r="H173" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="174">
-      <c r="A174" s="1" t="n">
-        <v>172</v>
-      </c>
-      <c r="B174" t="n">
-        <v>8.01</v>
-      </c>
-      <c r="C174" t="n">
-        <v>8.01</v>
-      </c>
-      <c r="D174" t="n">
-        <v>8.01</v>
-      </c>
-      <c r="E174" t="n">
-        <v>8.01</v>
-      </c>
-      <c r="F174" t="n">
-        <v>54987.5232</v>
-      </c>
-      <c r="G174" t="n">
-        <v>8.149666666666668</v>
-      </c>
-      <c r="H174" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="175">
-      <c r="A175" s="1" t="n">
-        <v>173</v>
-      </c>
-      <c r="B175" t="n">
-        <v>8.01</v>
-      </c>
-      <c r="C175" t="n">
-        <v>8.02</v>
-      </c>
-      <c r="D175" t="n">
-        <v>8.02</v>
-      </c>
-      <c r="E175" t="n">
-        <v>8.01</v>
-      </c>
-      <c r="F175" t="n">
-        <v>170849.0893</v>
-      </c>
-      <c r="G175" t="n">
-        <v>8.148166666666667</v>
-      </c>
-      <c r="H175" t="n">
+      <c r="I155" t="n">
         <v>0</v>
       </c>
     </row>
